--- a/資料生成/生成數據/generated_data.xlsx
+++ b/資料生成/生成數據/generated_data.xlsx
@@ -1,40 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4467EB1-96BC-4D57-8629-104B513C8D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>卡片名稱</t>
+  </si>
+  <si>
+    <t>開始充電時間</t>
+  </si>
+  <si>
+    <t>結束充電時間</t>
+  </si>
+  <si>
+    <t>SoC(開始)</t>
+  </si>
+  <si>
+    <t>SoC(結束)</t>
+  </si>
+  <si>
+    <t>EAA-795</t>
+  </si>
+  <si>
+    <t>EAA-788</t>
+  </si>
+  <si>
+    <t>EAA-793</t>
+  </si>
+  <si>
+    <t>EAA-778</t>
+  </si>
+  <si>
+    <t>EAA-785</t>
+  </si>
+  <si>
+    <t>EAA-782</t>
+  </si>
+  <si>
+    <t>EAA-786</t>
+  </si>
+  <si>
+    <t>EAA-779</t>
+  </si>
+  <si>
+    <t>EAA-792</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +111,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,256 +436,226 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="5" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>卡片名稱</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>開始充電時間</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>結束充電時間</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SoC(開始)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SoC(結束)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>EAA-795</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45315.92708333334</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45316.22916666666</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45315.927083333343</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45316.229166666657</v>
+      </c>
+      <c r="D2">
         <v>49</v>
       </c>
-      <c r="E2" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EAA-788</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45315.92708333334</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45316.20833333334</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="E2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45315.927083333343</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45316.208333333343</v>
+      </c>
+      <c r="D3">
         <v>32</v>
       </c>
-      <c r="E3" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EAA-793</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45315.89583333334</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45316.22916666666</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="E3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45315.895833333343</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45316.229166666657</v>
+      </c>
+      <c r="D4">
         <v>51</v>
       </c>
-      <c r="E4" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EAA-778</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45315.54166666666</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>45315.61458333334</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="E4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45315.541666666657</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45315.614583333343</v>
+      </c>
+      <c r="D5">
         <v>64</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>91</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EAA-785</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
         <v>45315.875</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45316.20833333334</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" s="2">
+        <v>45316.208333333343</v>
+      </c>
+      <c r="D6">
         <v>69</v>
       </c>
-      <c r="E6" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EAA-782</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45315.98958333334</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>45316.20833333334</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="E6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45315.989583333343</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45316.208333333343</v>
+      </c>
+      <c r="D7">
         <v>31</v>
       </c>
-      <c r="E7" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EAA-786</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45315.89583333334</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>45316.20833333334</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="E7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45315.895833333343</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45316.208333333343</v>
+      </c>
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="E8" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>EAA-779</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45315.89583333334</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="E8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45315.895833333343</v>
+      </c>
+      <c r="C9" s="2">
         <v>45316.21875</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>36</v>
       </c>
-      <c r="E9" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EAA-793</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="E9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
         <v>45315.28125</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45315.48958333334</v>
-      </c>
-      <c r="D10" t="n">
-        <v>95</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="C10" s="2">
+        <v>45315.489583333343</v>
+      </c>
+      <c r="D10">
+        <v>95</v>
+      </c>
+      <c r="E10">
         <v>92</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>EAA-792</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45315.39583333334</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>45315.55208333334</v>
-      </c>
-      <c r="D11" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45315.395833333343</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45315.552083333343</v>
+      </c>
+      <c r="D11">
         <v>85</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>92</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>EAA-778</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45315.92708333334</v>
-      </c>
-      <c r="C12" s="2" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45315.927083333343</v>
+      </c>
+      <c r="C12" s="2">
         <v>45316.21875</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>51</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>95</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/資料生成/生成數據/generated_data.xlsx
+++ b/資料生成/生成數據/generated_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4467EB1-96BC-4D57-8629-104B513C8D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54362BE5-CAF5-4C6C-9111-531066719A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="18120" yWindow="2544" windowWidth="12768" windowHeight="13248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="20">
   <si>
     <t>卡片名稱</t>
   </si>
@@ -37,31 +37,49 @@
     <t>SoC(結束)</t>
   </si>
   <si>
+    <t>下鯤鯓</t>
+  </si>
+  <si>
+    <t>EAA-791</t>
+  </si>
+  <si>
+    <t>EAA-785</t>
+  </si>
+  <si>
+    <t>下鯤鯓-1</t>
+  </si>
+  <si>
+    <t>EAA-779</t>
+  </si>
+  <si>
+    <t>EAA-783</t>
+  </si>
+  <si>
+    <t>EAA-786</t>
+  </si>
+  <si>
     <t>EAA-795</t>
+  </si>
+  <si>
+    <t>EAA-781</t>
+  </si>
+  <si>
+    <t>EAA-778</t>
+  </si>
+  <si>
+    <t>EAA-792</t>
   </si>
   <si>
     <t>EAA-788</t>
   </si>
   <si>
-    <t>EAA-793</t>
-  </si>
-  <si>
-    <t>EAA-778</t>
-  </si>
-  <si>
-    <t>EAA-785</t>
+    <t>EAA-780</t>
   </si>
   <si>
     <t>EAA-782</t>
   </si>
   <si>
-    <t>EAA-786</t>
-  </si>
-  <si>
-    <t>EAA-779</t>
-  </si>
-  <si>
-    <t>EAA-792</t>
+    <t>EAA-793</t>
   </si>
 </sst>
 </file>
@@ -437,16 +455,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,16 +489,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>45315.927083333343</v>
+        <v>45317.375</v>
       </c>
       <c r="C2" s="2">
-        <v>45316.229166666657</v>
+        <v>45317.59375</v>
       </c>
       <c r="D2">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>45315.927083333343</v>
+        <v>45317.40625</v>
       </c>
       <c r="C3" s="2">
-        <v>45316.208333333343</v>
+        <v>45317.625</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -505,16 +523,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>45315.895833333343</v>
+        <v>45317.5</v>
       </c>
       <c r="C4" s="2">
-        <v>45316.229166666657</v>
+        <v>45317.604166666657</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -522,16 +540,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>45315.541666666657</v>
+        <v>45317.520833333343</v>
       </c>
       <c r="C5" s="2">
-        <v>45315.614583333343</v>
+        <v>45317.625</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -539,47 +557,47 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>45315.875</v>
+        <v>45317.53125</v>
       </c>
       <c r="C6" s="2">
-        <v>45316.208333333343</v>
+        <v>45317.583333333343</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E6">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>45315.989583333343</v>
+        <v>45317.875</v>
       </c>
       <c r="C7" s="2">
-        <v>45316.208333333343</v>
+        <v>45318.21875</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>45315.895833333343</v>
+        <v>45317.885416666657</v>
       </c>
       <c r="C8" s="2">
-        <v>45316.208333333343</v>
+        <v>45318.229166666657</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>95</v>
@@ -587,75 +605,1604 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>45315.895833333343</v>
+        <v>45317.895833333343</v>
       </c>
       <c r="C9" s="2">
-        <v>45316.21875</v>
+        <v>45318.229166666657</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E9">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>45315.28125</v>
+        <v>45317.916666666657</v>
       </c>
       <c r="C10" s="2">
-        <v>45315.489583333343</v>
+        <v>45318.208333333343</v>
       </c>
       <c r="D10">
+        <v>51</v>
+      </c>
+      <c r="E10">
         <v>95</v>
-      </c>
-      <c r="E10">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>45315.395833333343</v>
+        <v>45317.927083333343</v>
       </c>
       <c r="C11" s="2">
-        <v>45315.552083333343</v>
+        <v>45318.21875</v>
       </c>
       <c r="D11">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E11">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45317.9375</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45318.208333333343</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+      <c r="E12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45317.947916666657</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45318.208333333343</v>
+      </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45317.958333333343</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45318.208333333343</v>
+      </c>
+      <c r="D14">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45317.979166666657</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45318.208333333343</v>
+      </c>
+      <c r="D15">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45317.979166666657</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45318.229166666657</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45317.989583333343</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45318.208333333343</v>
+      </c>
+      <c r="D17">
+        <v>47</v>
+      </c>
+      <c r="E17">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45318.395833333343</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45318.4375</v>
+      </c>
+      <c r="D18">
+        <v>87</v>
+      </c>
+      <c r="E18">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45318.395833333343</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45318.40625</v>
+      </c>
+      <c r="D19">
+        <v>86</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45318.875</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45319.21875</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45318.875</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45319.21875</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
-        <v>45315.927083333343</v>
-      </c>
-      <c r="C12" s="2">
-        <v>45316.21875</v>
-      </c>
-      <c r="D12">
+      <c r="B22" s="2">
+        <v>45318.895833333343</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45319.208333333343</v>
+      </c>
+      <c r="D22">
+        <v>46</v>
+      </c>
+      <c r="E22">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45318.895833333343</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45319.229166666657</v>
+      </c>
+      <c r="D23">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45318.90625</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45319.21875</v>
+      </c>
+      <c r="D24">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45318.90625</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45319.229166666657</v>
+      </c>
+      <c r="D25">
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45318.916666666657</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45319.21875</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45318.927083333343</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45319.208333333343</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45318.947916666657</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45319.229166666657</v>
+      </c>
+      <c r="D28">
+        <v>53</v>
+      </c>
+      <c r="E28">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45318.96875</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45319.229166666657</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45319.4375</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45319.5625</v>
+      </c>
+      <c r="D30">
+        <v>62</v>
+      </c>
+      <c r="E30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45319.447916666657</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45319.53125</v>
+      </c>
+      <c r="D31">
+        <v>83</v>
+      </c>
+      <c r="E31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45319.447916666657</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45319.520833333343</v>
+      </c>
+      <c r="D32">
+        <v>86</v>
+      </c>
+      <c r="E32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45319.46875</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45319.604166666657</v>
+      </c>
+      <c r="D33">
+        <v>73</v>
+      </c>
+      <c r="E33">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45319.791666666657</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45320.208333333343</v>
+      </c>
+      <c r="D34">
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45319.822916666657</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45320.208333333343</v>
+      </c>
+      <c r="D35">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45319.875</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45320.21875</v>
+      </c>
+      <c r="D36">
+        <v>36</v>
+      </c>
+      <c r="E36">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45319.875</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45320.208333333343</v>
+      </c>
+      <c r="D37">
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45319.875</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45320.21875</v>
+      </c>
+      <c r="D38">
+        <v>91</v>
+      </c>
+      <c r="E38">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45319.885416666657</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45320.208333333343</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45319.885416666657</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45320.21875</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45319.927083333343</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45320.208333333343</v>
+      </c>
+      <c r="D41">
+        <v>54</v>
+      </c>
+      <c r="E41">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45319.9375</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45320.208333333343</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45319.979166666657</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45320.21875</v>
+      </c>
+      <c r="D43">
+        <v>39</v>
+      </c>
+      <c r="E43">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45319.979166666657</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45320.229166666657</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45319.989583333343</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45320.21875</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45320.239583333343</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45320.354166666657</v>
+      </c>
+      <c r="D46">
+        <v>48</v>
+      </c>
+      <c r="E46">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45320.375</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45320.5</v>
+      </c>
+      <c r="D47">
+        <v>84</v>
+      </c>
+      <c r="E47">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45320.375</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45320.541666666657</v>
+      </c>
+      <c r="D48">
+        <v>86</v>
+      </c>
+      <c r="E48">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45320.385416666657</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45320.541666666657</v>
+      </c>
+      <c r="D49">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45320.395833333343</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45320.5</v>
+      </c>
+      <c r="D50">
+        <v>78</v>
+      </c>
+      <c r="E50">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45320.510416666657</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45320.614583333343</v>
+      </c>
+      <c r="D51">
+        <v>48</v>
+      </c>
+      <c r="E51">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45320.53125</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45320.604166666657</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45320.833333333343</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45321.229166666657</v>
+      </c>
+      <c r="D53">
+        <v>69</v>
+      </c>
+      <c r="E53">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45320.895833333343</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45321.208333333343</v>
+      </c>
+      <c r="D54">
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45320.90625</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45321.21875</v>
+      </c>
+      <c r="D55">
+        <v>94</v>
+      </c>
+      <c r="E55">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45320.90625</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45321.21875</v>
+      </c>
+      <c r="D56">
+        <v>72</v>
+      </c>
+      <c r="E56">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45320.916666666657</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45321.208333333343</v>
+      </c>
+      <c r="D57">
+        <v>60</v>
+      </c>
+      <c r="E57">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45320.916666666657</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45321.208333333343</v>
+      </c>
+      <c r="D58">
+        <v>52</v>
+      </c>
+      <c r="E58">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45320.916666666657</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45321.208333333343</v>
+      </c>
+      <c r="D59">
+        <v>44</v>
+      </c>
+      <c r="E59">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45320.927083333343</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45321.208333333343</v>
+      </c>
+      <c r="D60">
+        <v>47</v>
+      </c>
+      <c r="E60">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45320.947916666657</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45321.229166666657</v>
+      </c>
+      <c r="D61">
+        <v>55</v>
+      </c>
+      <c r="E61">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45320.947916666657</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45321.208333333343</v>
+      </c>
+      <c r="D62">
+        <v>44</v>
+      </c>
+      <c r="E62">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45321.354166666657</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45321.59375</v>
+      </c>
+      <c r="D63">
+        <v>15</v>
+      </c>
+      <c r="E63">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45321.395833333343</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45321.5625</v>
+      </c>
+      <c r="D64">
+        <v>88</v>
+      </c>
+      <c r="E64">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45321.447916666657</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45321.447916666657</v>
+      </c>
+      <c r="D65">
+        <v>80</v>
+      </c>
+      <c r="E65">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45321.447916666657</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45321.520833333343</v>
+      </c>
+      <c r="D66">
+        <v>88</v>
+      </c>
+      <c r="E66">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45321.5</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45321.614583333343</v>
+      </c>
+      <c r="D67">
+        <v>69</v>
+      </c>
+      <c r="E67">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45321.8125</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45322.21875</v>
+      </c>
+      <c r="D68">
+        <v>41</v>
+      </c>
+      <c r="E68">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45321.885416666657</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45322.21875</v>
+      </c>
+      <c r="D69">
         <v>51</v>
       </c>
-      <c r="E12">
+      <c r="E69">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45321.90625</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45322.208333333343</v>
+      </c>
+      <c r="D70">
+        <v>53</v>
+      </c>
+      <c r="E70">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45321.916666666657</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45322.21875</v>
+      </c>
+      <c r="D71">
+        <v>65</v>
+      </c>
+      <c r="E71">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45321.927083333343</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45322.208333333343</v>
+      </c>
+      <c r="D72">
+        <v>58</v>
+      </c>
+      <c r="E72">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45321.947916666657</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45322.208333333343</v>
+      </c>
+      <c r="D73">
+        <v>53</v>
+      </c>
+      <c r="E73">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45321.958333333343</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45322.229166666657</v>
+      </c>
+      <c r="D74">
+        <v>27</v>
+      </c>
+      <c r="E74">
         <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45322.333333333343</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45322.364583333343</v>
+      </c>
+      <c r="D75">
+        <v>87</v>
+      </c>
+      <c r="E75">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45322.34375</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45322.614583333343</v>
+      </c>
+      <c r="D76">
+        <v>76</v>
+      </c>
+      <c r="E76">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45322.375</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45322.375</v>
+      </c>
+      <c r="D77">
+        <v>77</v>
+      </c>
+      <c r="E77">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45322.385416666657</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45322.510416666657</v>
+      </c>
+      <c r="D78">
+        <v>87</v>
+      </c>
+      <c r="E78">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45322.447916666657</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45322.604166666657</v>
+      </c>
+      <c r="D79">
+        <v>81</v>
+      </c>
+      <c r="E79">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45322.583333333343</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45322.59375</v>
+      </c>
+      <c r="D80">
+        <v>60</v>
+      </c>
+      <c r="E80">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45322.875</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45323.21875</v>
+      </c>
+      <c r="D81">
+        <v>51</v>
+      </c>
+      <c r="E81">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45322.885416666657</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45323.229166666657</v>
+      </c>
+      <c r="D82">
+        <v>34</v>
+      </c>
+      <c r="E82">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45322.885416666657</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45323.21875</v>
+      </c>
+      <c r="D83">
+        <v>39</v>
+      </c>
+      <c r="E83">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45322.916666666657</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45323.21875</v>
+      </c>
+      <c r="D84">
+        <v>44</v>
+      </c>
+      <c r="E84">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45322.9375</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45323.21875</v>
+      </c>
+      <c r="D85">
+        <v>55</v>
+      </c>
+      <c r="E85">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45322.947916666657</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45323.208333333343</v>
+      </c>
+      <c r="D86">
+        <v>38</v>
+      </c>
+      <c r="E86">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45322.947916666657</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45323.208333333343</v>
+      </c>
+      <c r="D87">
+        <v>56</v>
+      </c>
+      <c r="E87">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45322.958333333343</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45323.229166666657</v>
+      </c>
+      <c r="D88">
+        <v>46</v>
+      </c>
+      <c r="E88">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45322.979166666657</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45323.208333333343</v>
+      </c>
+      <c r="D89">
+        <v>31</v>
+      </c>
+      <c r="E89">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45322.989583333343</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45323.208333333343</v>
+      </c>
+      <c r="D90">
+        <v>46</v>
+      </c>
+      <c r="E90">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45323.354166666657</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45323.552083333343</v>
+      </c>
+      <c r="D91">
+        <v>88</v>
+      </c>
+      <c r="E91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45323.427083333343</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45323.479166666657</v>
+      </c>
+      <c r="D92">
+        <v>65</v>
+      </c>
+      <c r="E92">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45323.510416666657</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45323.625</v>
+      </c>
+      <c r="D93">
+        <v>76</v>
+      </c>
+      <c r="E93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45323.770833333343</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45324.208333333343</v>
+      </c>
+      <c r="D94">
+        <v>91</v>
+      </c>
+      <c r="E94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45323.875</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45324.229166666657</v>
+      </c>
+      <c r="D95">
+        <v>35</v>
+      </c>
+      <c r="E95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45323.875</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45324.229166666657</v>
+      </c>
+      <c r="D96">
+        <v>35</v>
+      </c>
+      <c r="E96">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45323.875</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45324.208333333343</v>
+      </c>
+      <c r="D97">
+        <v>36</v>
+      </c>
+      <c r="E97">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45323.875</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45324.229166666657</v>
+      </c>
+      <c r="D98">
+        <v>54</v>
+      </c>
+      <c r="E98">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45323.895833333343</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45324.229166666657</v>
+      </c>
+      <c r="D99">
+        <v>48</v>
+      </c>
+      <c r="E99">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>18</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45323.947916666657</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45324.229166666657</v>
+      </c>
+      <c r="D100">
+        <v>55</v>
+      </c>
+      <c r="E100">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45323.958333333343</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45324.229166666657</v>
+      </c>
+      <c r="D101">
+        <v>41</v>
+      </c>
+      <c r="E101">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45323.96875</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45324.208333333343</v>
+      </c>
+      <c r="D102">
+        <v>52</v>
+      </c>
+      <c r="E102">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/資料生成/生成數據/generated_data.xlsx
+++ b/資料生成/生成數據/generated_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54362BE5-CAF5-4C6C-9111-531066719A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2F5F93-2FFA-4BC0-A7D0-67ADBCBF8C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18120" yWindow="2544" windowWidth="12768" windowHeight="13248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
   <si>
     <t>卡片名稱</t>
   </si>
@@ -37,49 +37,49 @@
     <t>SoC(結束)</t>
   </si>
   <si>
-    <t>下鯤鯓</t>
+    <t>EAA-779</t>
+  </si>
+  <si>
+    <t>EAA-793</t>
+  </si>
+  <si>
+    <t>EAA-782</t>
+  </si>
+  <si>
+    <t>EAA-792</t>
+  </si>
+  <si>
+    <t>EAA-785</t>
+  </si>
+  <si>
+    <t>EAA-795</t>
+  </si>
+  <si>
+    <t>EAA-788</t>
   </si>
   <si>
     <t>EAA-791</t>
   </si>
   <si>
-    <t>EAA-785</t>
+    <t>EAA-778</t>
   </si>
   <si>
     <t>下鯤鯓-1</t>
   </si>
   <si>
-    <t>EAA-779</t>
+    <t>EAA-783</t>
   </si>
   <si>
-    <t>EAA-783</t>
+    <t>EAA-780</t>
   </si>
   <si>
     <t>EAA-786</t>
   </si>
   <si>
-    <t>EAA-795</t>
+    <t>下鯤鯓</t>
   </si>
   <si>
     <t>EAA-781</t>
-  </si>
-  <si>
-    <t>EAA-778</t>
-  </si>
-  <si>
-    <t>EAA-792</t>
-  </si>
-  <si>
-    <t>EAA-788</t>
-  </si>
-  <si>
-    <t>EAA-780</t>
-  </si>
-  <si>
-    <t>EAA-782</t>
-  </si>
-  <si>
-    <t>EAA-793</t>
   </si>
 </sst>
 </file>
@@ -455,14 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -489,16 +490,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>45317.375</v>
+        <v>45318.354166666657</v>
       </c>
       <c r="C2" s="2">
-        <v>45317.59375</v>
+        <v>45318.354166666657</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -506,16 +507,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>45317.40625</v>
+        <v>45318.447916666657</v>
       </c>
       <c r="C3" s="2">
-        <v>45317.625</v>
+        <v>45318.5625</v>
       </c>
       <c r="D3">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>45317.5</v>
+        <v>45318.53125</v>
       </c>
       <c r="C4" s="2">
-        <v>45317.604166666657</v>
+        <v>45318.59375</v>
       </c>
       <c r="D4">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E4">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>45317.520833333343</v>
+        <v>45318.885416666657</v>
       </c>
       <c r="C5" s="2">
-        <v>45317.625</v>
+        <v>45319.208333333343</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -557,183 +558,183 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>45317.53125</v>
+        <v>45318.885416666657</v>
       </c>
       <c r="C6" s="2">
-        <v>45317.583333333343</v>
+        <v>45319.208333333343</v>
       </c>
       <c r="D6">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E6">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>45317.875</v>
+        <v>45318.895833333343</v>
       </c>
       <c r="C7" s="2">
-        <v>45318.21875</v>
+        <v>45319.229166666657</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>45317.885416666657</v>
+        <v>45318.895833333343</v>
       </c>
       <c r="C8" s="2">
-        <v>45318.229166666657</v>
+        <v>45319.208333333343</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>45317.895833333343</v>
+        <v>45318.90625</v>
       </c>
       <c r="C9" s="2">
-        <v>45318.229166666657</v>
+        <v>45319.21875</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>45317.916666666657</v>
+        <v>45318.90625</v>
       </c>
       <c r="C10" s="2">
-        <v>45318.208333333343</v>
+        <v>45319.229166666657</v>
       </c>
       <c r="D10">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>45317.927083333343</v>
+        <v>45318.927083333343</v>
       </c>
       <c r="C11" s="2">
-        <v>45318.21875</v>
+        <v>45319.208333333343</v>
       </c>
       <c r="D11">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>45317.9375</v>
+        <v>45318.9375</v>
       </c>
       <c r="C12" s="2">
-        <v>45318.208333333343</v>
+        <v>45319.208333333343</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E12">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2">
-        <v>45317.947916666657</v>
+        <v>45318.9375</v>
       </c>
       <c r="C13" s="2">
-        <v>45318.208333333343</v>
+        <v>45319.208333333343</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>45317.958333333343</v>
+        <v>45319.354166666657</v>
       </c>
       <c r="C14" s="2">
-        <v>45318.208333333343</v>
+        <v>45319.614583333343</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E14">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>45317.979166666657</v>
+        <v>45319.364583333343</v>
       </c>
       <c r="C15" s="2">
-        <v>45318.208333333343</v>
+        <v>45319.40625</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E15">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>45317.979166666657</v>
+        <v>45319.395833333343</v>
       </c>
       <c r="C16" s="2">
-        <v>45318.229166666657</v>
+        <v>45319.510416666657</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>91</v>
@@ -741,16 +742,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>45317.989583333343</v>
+        <v>45319.40625</v>
       </c>
       <c r="C17" s="2">
-        <v>45318.208333333343</v>
+        <v>45319.5625</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>93</v>
@@ -758,36 +759,36 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
-        <v>45318.395833333343</v>
+        <v>45319.458333333343</v>
       </c>
       <c r="C18" s="2">
-        <v>45318.4375</v>
+        <v>45319.604166666657</v>
       </c>
       <c r="D18">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E18">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>45318.395833333343</v>
+        <v>45319.53125</v>
       </c>
       <c r="C19" s="2">
-        <v>45318.40625</v>
+        <v>45319.572916666657</v>
       </c>
       <c r="D19">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,30 +796,30 @@
         <v>7</v>
       </c>
       <c r="B20" s="2">
-        <v>45318.875</v>
+        <v>45319.802083333343</v>
       </c>
       <c r="C20" s="2">
-        <v>45319.21875</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="D20">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E20">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45318.875</v>
+        <v>45319.822916666657</v>
       </c>
       <c r="C21" s="2">
-        <v>45319.21875</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>91</v>
@@ -826,16 +827,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
-        <v>45318.895833333343</v>
+        <v>45319.875</v>
       </c>
       <c r="C22" s="2">
-        <v>45319.208333333343</v>
+        <v>45320.21875</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>93</v>
@@ -843,16 +844,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23" s="2">
-        <v>45318.895833333343</v>
+        <v>45319.885416666657</v>
       </c>
       <c r="C23" s="2">
-        <v>45319.229166666657</v>
+        <v>45320.21875</v>
       </c>
       <c r="D23">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>92</v>
@@ -860,33 +861,33 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2">
-        <v>45318.90625</v>
+        <v>45319.885416666657</v>
       </c>
       <c r="C24" s="2">
-        <v>45319.21875</v>
+        <v>45320.21875</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E24">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B25" s="2">
-        <v>45318.90625</v>
+        <v>45319.895833333343</v>
       </c>
       <c r="C25" s="2">
-        <v>45319.229166666657</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="D25">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>90</v>
@@ -894,84 +895,84 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>45318.916666666657</v>
+        <v>45319.90625</v>
       </c>
       <c r="C26" s="2">
-        <v>45319.21875</v>
+        <v>45320.21875</v>
       </c>
       <c r="D26">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="E26">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B27" s="2">
-        <v>45318.927083333343</v>
+        <v>45319.90625</v>
       </c>
       <c r="C27" s="2">
-        <v>45319.208333333343</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E27">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2">
-        <v>45318.947916666657</v>
+        <v>45319.916666666657</v>
       </c>
       <c r="C28" s="2">
-        <v>45319.229166666657</v>
+        <v>45320.229166666657</v>
       </c>
       <c r="D28">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E28">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2">
-        <v>45318.96875</v>
+        <v>45319.927083333343</v>
       </c>
       <c r="C29" s="2">
-        <v>45319.229166666657</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="2">
-        <v>45319.4375</v>
+        <v>45319.9375</v>
       </c>
       <c r="C30" s="2">
-        <v>45319.5625</v>
+        <v>45320.21875</v>
       </c>
       <c r="D30">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="E30">
         <v>94</v>
@@ -979,67 +980,67 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2">
-        <v>45319.447916666657</v>
+        <v>45319.9375</v>
       </c>
       <c r="C31" s="2">
-        <v>45319.53125</v>
+        <v>45320.208333333343</v>
       </c>
       <c r="D31">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E31">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B32" s="2">
-        <v>45319.447916666657</v>
+        <v>45319.947916666657</v>
       </c>
       <c r="C32" s="2">
-        <v>45319.520833333343</v>
+        <v>45320.21875</v>
       </c>
       <c r="D32">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E32">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B33" s="2">
-        <v>45319.46875</v>
+        <v>45319.958333333343</v>
       </c>
       <c r="C33" s="2">
-        <v>45319.604166666657</v>
+        <v>45320.21875</v>
       </c>
       <c r="D33">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2">
-        <v>45319.791666666657</v>
+        <v>45320.364583333343</v>
       </c>
       <c r="C34" s="2">
-        <v>45320.208333333343</v>
+        <v>45320.510416666657</v>
       </c>
       <c r="D34">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="E34">
         <v>95</v>
@@ -1047,50 +1048,50 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2">
-        <v>45319.822916666657</v>
+        <v>45320.364583333343</v>
       </c>
       <c r="C35" s="2">
-        <v>45320.208333333343</v>
+        <v>45320.375</v>
       </c>
       <c r="D35">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E35">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2">
-        <v>45319.875</v>
+        <v>45320.385416666657</v>
       </c>
       <c r="C36" s="2">
-        <v>45320.21875</v>
+        <v>45320.614583333343</v>
       </c>
       <c r="D36">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="E36">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>45319.875</v>
+        <v>45320.395833333343</v>
       </c>
       <c r="C37" s="2">
-        <v>45320.208333333343</v>
+        <v>45320.614583333343</v>
       </c>
       <c r="D37">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="E37">
         <v>92</v>
@@ -1098,16 +1099,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2">
-        <v>45319.875</v>
+        <v>45320.416666666657</v>
       </c>
       <c r="C38" s="2">
-        <v>45320.21875</v>
+        <v>45320.458333333343</v>
       </c>
       <c r="D38">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E38">
         <v>92</v>
@@ -1115,16 +1116,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="2">
-        <v>45319.885416666657</v>
+        <v>45320.479166666657</v>
       </c>
       <c r="C39" s="2">
-        <v>45320.208333333343</v>
+        <v>45320.5</v>
       </c>
       <c r="D39">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="E39">
         <v>93</v>
@@ -1132,16 +1133,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2">
-        <v>45319.885416666657</v>
+        <v>45320.78125</v>
       </c>
       <c r="C40" s="2">
-        <v>45320.21875</v>
+        <v>45321.229166666657</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -1149,16 +1150,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2">
-        <v>45319.927083333343</v>
+        <v>45320.854166666657</v>
       </c>
       <c r="C41" s="2">
-        <v>45320.208333333343</v>
+        <v>45321.208333333343</v>
       </c>
       <c r="D41">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E41">
         <v>91</v>
@@ -1169,47 +1170,47 @@
         <v>13</v>
       </c>
       <c r="B42" s="2">
-        <v>45319.9375</v>
+        <v>45320.885416666657</v>
       </c>
       <c r="C42" s="2">
-        <v>45320.208333333343</v>
+        <v>45321.208333333343</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E42">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B43" s="2">
-        <v>45319.979166666657</v>
+        <v>45320.885416666657</v>
       </c>
       <c r="C43" s="2">
-        <v>45320.21875</v>
+        <v>45321.21875</v>
       </c>
       <c r="D43">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E43">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B44" s="2">
-        <v>45319.979166666657</v>
+        <v>45320.885416666657</v>
       </c>
       <c r="C44" s="2">
-        <v>45320.229166666657</v>
+        <v>45321.208333333343</v>
       </c>
       <c r="D44">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E44">
         <v>92</v>
@@ -1217,53 +1218,53 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2">
-        <v>45319.989583333343</v>
+        <v>45320.885416666657</v>
       </c>
       <c r="C45" s="2">
-        <v>45320.21875</v>
+        <v>45321.229166666657</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E45">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="2">
-        <v>45320.239583333343</v>
+        <v>45320.895833333343</v>
       </c>
       <c r="C46" s="2">
-        <v>45320.354166666657</v>
+        <v>45321.229166666657</v>
       </c>
       <c r="D46">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E46">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B47" s="2">
-        <v>45320.375</v>
+        <v>45320.916666666657</v>
       </c>
       <c r="C47" s="2">
-        <v>45320.5</v>
+        <v>45321.229166666657</v>
       </c>
       <c r="D47">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E47">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,13 +1272,13 @@
         <v>12</v>
       </c>
       <c r="B48" s="2">
-        <v>45320.375</v>
+        <v>45320.916666666657</v>
       </c>
       <c r="C48" s="2">
-        <v>45320.541666666657</v>
+        <v>45321.21875</v>
       </c>
       <c r="D48">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>94</v>
@@ -1285,186 +1286,186 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49" s="2">
-        <v>45320.385416666657</v>
+        <v>45320.958333333343</v>
       </c>
       <c r="C49" s="2">
-        <v>45320.541666666657</v>
+        <v>45321.208333333343</v>
       </c>
       <c r="D49">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E49">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B50" s="2">
-        <v>45320.395833333343</v>
+        <v>45320.979166666657</v>
       </c>
       <c r="C50" s="2">
-        <v>45320.5</v>
+        <v>45321.21875</v>
       </c>
       <c r="D50">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="E50">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B51" s="2">
-        <v>45320.510416666657</v>
+        <v>45320.989583333343</v>
       </c>
       <c r="C51" s="2">
-        <v>45320.614583333343</v>
+        <v>45321.229166666657</v>
       </c>
       <c r="D51">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E51">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B52" s="2">
-        <v>45320.53125</v>
+        <v>45321.333333333343</v>
       </c>
       <c r="C52" s="2">
-        <v>45320.604166666657</v>
+        <v>45321.364583333343</v>
       </c>
       <c r="D52">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E52">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" s="2">
-        <v>45320.833333333343</v>
+        <v>45321.34375</v>
       </c>
       <c r="C53" s="2">
-        <v>45321.229166666657</v>
+        <v>45321.479166666657</v>
       </c>
       <c r="D53">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E53">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B54" s="2">
-        <v>45320.895833333343</v>
+        <v>45321.34375</v>
       </c>
       <c r="C54" s="2">
-        <v>45321.208333333343</v>
+        <v>45321.5625</v>
       </c>
       <c r="D54">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E54">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B55" s="2">
-        <v>45320.90625</v>
+        <v>45321.34375</v>
       </c>
       <c r="C55" s="2">
-        <v>45321.21875</v>
+        <v>45321.510416666657</v>
       </c>
       <c r="D55">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E55">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" s="2">
-        <v>45320.90625</v>
+        <v>45321.385416666657</v>
       </c>
       <c r="C56" s="2">
-        <v>45321.21875</v>
+        <v>45321.552083333343</v>
       </c>
       <c r="D56">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E56">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B57" s="2">
-        <v>45320.916666666657</v>
+        <v>45321.4375</v>
       </c>
       <c r="C57" s="2">
-        <v>45321.208333333343</v>
+        <v>45321.520833333343</v>
       </c>
       <c r="D57">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="E57">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" s="2">
-        <v>45320.916666666657</v>
+        <v>45321.791666666657</v>
       </c>
       <c r="C58" s="2">
-        <v>45321.208333333343</v>
+        <v>45322.229166666657</v>
       </c>
       <c r="D58">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E58">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B59" s="2">
-        <v>45320.916666666657</v>
+        <v>45321.802083333343</v>
       </c>
       <c r="C59" s="2">
-        <v>45321.208333333343</v>
+        <v>45322.21875</v>
       </c>
       <c r="D59">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E59">
         <v>91</v>
@@ -1475,13 +1476,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="2">
-        <v>45320.927083333343</v>
+        <v>45321.822916666657</v>
       </c>
       <c r="C60" s="2">
-        <v>45321.208333333343</v>
+        <v>45322.21875</v>
       </c>
       <c r="D60">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E60">
         <v>93</v>
@@ -1489,135 +1490,135 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B61" s="2">
-        <v>45320.947916666657</v>
+        <v>45321.854166666657</v>
       </c>
       <c r="C61" s="2">
-        <v>45321.229166666657</v>
+        <v>45322.229166666657</v>
       </c>
       <c r="D61">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E61">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B62" s="2">
-        <v>45320.947916666657</v>
+        <v>45321.875</v>
       </c>
       <c r="C62" s="2">
-        <v>45321.208333333343</v>
+        <v>45322.21875</v>
       </c>
       <c r="D62">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E62">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B63" s="2">
-        <v>45321.354166666657</v>
+        <v>45321.875</v>
       </c>
       <c r="C63" s="2">
-        <v>45321.59375</v>
+        <v>45322.21875</v>
       </c>
       <c r="D63">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="E63">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B64" s="2">
-        <v>45321.395833333343</v>
+        <v>45321.885416666657</v>
       </c>
       <c r="C64" s="2">
-        <v>45321.5625</v>
+        <v>45322.208333333343</v>
       </c>
       <c r="D64">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E64">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B65" s="2">
-        <v>45321.447916666657</v>
+        <v>45321.885416666657</v>
       </c>
       <c r="C65" s="2">
-        <v>45321.447916666657</v>
+        <v>45322.21875</v>
       </c>
       <c r="D65">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E65">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B66" s="2">
-        <v>45321.447916666657</v>
+        <v>45321.895833333343</v>
       </c>
       <c r="C66" s="2">
-        <v>45321.520833333343</v>
+        <v>45322.21875</v>
       </c>
       <c r="D66">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="E66">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B67" s="2">
-        <v>45321.5</v>
+        <v>45321.895833333343</v>
       </c>
       <c r="C67" s="2">
-        <v>45321.614583333343</v>
+        <v>45322.229166666657</v>
       </c>
       <c r="D67">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E67">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B68" s="2">
-        <v>45321.8125</v>
+        <v>45321.895833333343</v>
       </c>
       <c r="C68" s="2">
-        <v>45322.21875</v>
+        <v>45322.229166666657</v>
       </c>
       <c r="D68">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E68">
         <v>95</v>
@@ -1625,33 +1626,33 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B69" s="2">
-        <v>45321.885416666657</v>
+        <v>45321.90625</v>
       </c>
       <c r="C69" s="2">
-        <v>45322.21875</v>
+        <v>45322.208333333343</v>
       </c>
       <c r="D69">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E69">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B70" s="2">
-        <v>45321.90625</v>
+        <v>45321.916666666657</v>
       </c>
       <c r="C70" s="2">
-        <v>45322.208333333343</v>
+        <v>45322.21875</v>
       </c>
       <c r="D70">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E70">
         <v>94</v>
@@ -1659,16 +1660,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B71" s="2">
-        <v>45321.916666666657</v>
+        <v>45321.927083333343</v>
       </c>
       <c r="C71" s="2">
-        <v>45322.21875</v>
+        <v>45322.208333333343</v>
       </c>
       <c r="D71">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E71">
         <v>94</v>
@@ -1676,33 +1677,33 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B72" s="2">
-        <v>45321.927083333343</v>
+        <v>45321.96875</v>
       </c>
       <c r="C72" s="2">
-        <v>45322.208333333343</v>
+        <v>45322.229166666657</v>
       </c>
       <c r="D72">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E72">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B73" s="2">
-        <v>45321.947916666657</v>
+        <v>45322.375</v>
       </c>
       <c r="C73" s="2">
-        <v>45322.208333333343</v>
+        <v>45322.510416666657</v>
       </c>
       <c r="D73">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E73">
         <v>94</v>
@@ -1710,50 +1711,50 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B74" s="2">
-        <v>45321.958333333343</v>
+        <v>45322.395833333343</v>
       </c>
       <c r="C74" s="2">
-        <v>45322.229166666657</v>
+        <v>45322.447916666657</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E74">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B75" s="2">
-        <v>45322.333333333343</v>
+        <v>45322.53125</v>
       </c>
       <c r="C75" s="2">
-        <v>45322.364583333343</v>
+        <v>45322.59375</v>
       </c>
       <c r="D75">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E75">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B76" s="2">
-        <v>45322.34375</v>
+        <v>45322.604166666657</v>
       </c>
       <c r="C76" s="2">
-        <v>45322.614583333343</v>
+        <v>45322.625</v>
       </c>
       <c r="D76">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E76">
         <v>90</v>
@@ -1761,36 +1762,36 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" s="2">
-        <v>45322.375</v>
+        <v>45322.8125</v>
       </c>
       <c r="C77" s="2">
-        <v>45322.375</v>
+        <v>45323.21875</v>
       </c>
       <c r="D77">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E77">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B78" s="2">
-        <v>45322.385416666657</v>
+        <v>45322.875</v>
       </c>
       <c r="C78" s="2">
-        <v>45322.510416666657</v>
+        <v>45323.229166666657</v>
       </c>
       <c r="D78">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E78">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1798,50 +1799,50 @@
         <v>16</v>
       </c>
       <c r="B79" s="2">
-        <v>45322.447916666657</v>
+        <v>45322.885416666657</v>
       </c>
       <c r="C79" s="2">
-        <v>45322.604166666657</v>
+        <v>45323.208333333343</v>
       </c>
       <c r="D79">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="E79">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B80" s="2">
-        <v>45322.583333333343</v>
+        <v>45322.895833333343</v>
       </c>
       <c r="C80" s="2">
-        <v>45322.59375</v>
+        <v>45323.21875</v>
       </c>
       <c r="D80">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E80">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B81" s="2">
-        <v>45322.875</v>
+        <v>45322.895833333343</v>
       </c>
       <c r="C81" s="2">
-        <v>45323.21875</v>
+        <v>45323.229166666657</v>
       </c>
       <c r="D81">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E81">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1849,13 +1850,13 @@
         <v>14</v>
       </c>
       <c r="B82" s="2">
-        <v>45322.885416666657</v>
+        <v>45322.947916666657</v>
       </c>
       <c r="C82" s="2">
-        <v>45323.229166666657</v>
+        <v>45323.21875</v>
       </c>
       <c r="D82">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E82">
         <v>95</v>
@@ -1863,19 +1864,19 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B83" s="2">
-        <v>45322.885416666657</v>
+        <v>45322.947916666657</v>
       </c>
       <c r="C83" s="2">
-        <v>45323.21875</v>
+        <v>45323.229166666657</v>
       </c>
       <c r="D83">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E83">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1883,132 +1884,132 @@
         <v>17</v>
       </c>
       <c r="B84" s="2">
-        <v>45322.916666666657</v>
+        <v>45322.958333333343</v>
       </c>
       <c r="C84" s="2">
-        <v>45323.21875</v>
+        <v>45323.208333333343</v>
       </c>
       <c r="D84">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E84">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B85" s="2">
-        <v>45322.9375</v>
+        <v>45322.958333333343</v>
       </c>
       <c r="C85" s="2">
         <v>45323.21875</v>
       </c>
       <c r="D85">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E85">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B86" s="2">
-        <v>45322.947916666657</v>
+        <v>45322.989583333343</v>
       </c>
       <c r="C86" s="2">
         <v>45323.208333333343</v>
       </c>
       <c r="D86">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E86">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B87" s="2">
-        <v>45322.947916666657</v>
+        <v>45323.34375</v>
       </c>
       <c r="C87" s="2">
-        <v>45323.208333333343</v>
+        <v>45323.604166666657</v>
       </c>
       <c r="D87">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E87">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" s="2">
-        <v>45322.958333333343</v>
+        <v>45323.354166666657</v>
       </c>
       <c r="C88" s="2">
-        <v>45323.229166666657</v>
+        <v>45323.479166666657</v>
       </c>
       <c r="D88">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E88">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B89" s="2">
-        <v>45322.979166666657</v>
+        <v>45323.375</v>
       </c>
       <c r="C89" s="2">
-        <v>45323.208333333343</v>
+        <v>45323.5</v>
       </c>
       <c r="D89">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="E89">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B90" s="2">
-        <v>45322.989583333343</v>
+        <v>45323.385416666657</v>
       </c>
       <c r="C90" s="2">
-        <v>45323.208333333343</v>
+        <v>45323.59375</v>
       </c>
       <c r="D90">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E90">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B91" s="2">
-        <v>45323.354166666657</v>
+        <v>45323.510416666657</v>
       </c>
       <c r="C91" s="2">
-        <v>45323.552083333343</v>
+        <v>45323.625</v>
       </c>
       <c r="D91">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="E91">
         <v>91</v>
@@ -2016,16 +2017,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B92" s="2">
-        <v>45323.427083333343</v>
+        <v>45323.75</v>
       </c>
       <c r="C92" s="2">
-        <v>45323.479166666657</v>
+        <v>45324.21875</v>
       </c>
       <c r="D92">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E92">
         <v>95</v>
@@ -2033,176 +2034,347 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B93" s="2">
-        <v>45323.510416666657</v>
+        <v>45323.864583333343</v>
       </c>
       <c r="C93" s="2">
-        <v>45323.625</v>
+        <v>45324.208333333343</v>
       </c>
       <c r="D93">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E93">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B94" s="2">
-        <v>45323.770833333343</v>
+        <v>45323.875</v>
       </c>
       <c r="C94" s="2">
-        <v>45324.208333333343</v>
+        <v>45324.21875</v>
       </c>
       <c r="D94">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E94">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B95" s="2">
-        <v>45323.875</v>
+        <v>45323.90625</v>
       </c>
       <c r="C95" s="2">
-        <v>45324.229166666657</v>
+        <v>45324.21875</v>
       </c>
       <c r="D95">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E95">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B96" s="2">
-        <v>45323.875</v>
+        <v>45323.916666666657</v>
       </c>
       <c r="C96" s="2">
-        <v>45324.229166666657</v>
+        <v>45324.208333333343</v>
       </c>
       <c r="D96">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E96">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B97" s="2">
-        <v>45323.875</v>
+        <v>45323.96875</v>
       </c>
       <c r="C97" s="2">
-        <v>45324.208333333343</v>
+        <v>45324.229166666657</v>
       </c>
       <c r="D97">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E97">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B98" s="2">
-        <v>45323.875</v>
+        <v>45324.21875</v>
       </c>
       <c r="C98" s="2">
-        <v>45324.229166666657</v>
+        <v>45324.28125</v>
       </c>
       <c r="D98">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E98">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B99" s="2">
-        <v>45323.895833333343</v>
+        <v>45324.270833333343</v>
       </c>
       <c r="C99" s="2">
-        <v>45324.229166666657</v>
+        <v>45324.5625</v>
       </c>
       <c r="D99">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E99">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B100" s="2">
-        <v>45323.947916666657</v>
+        <v>45324.270833333343</v>
       </c>
       <c r="C100" s="2">
-        <v>45324.229166666657</v>
+        <v>45324.614583333343</v>
       </c>
       <c r="D100">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E100">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B101" s="2">
-        <v>45323.958333333343</v>
+        <v>45324.354166666657</v>
       </c>
       <c r="C101" s="2">
-        <v>45324.229166666657</v>
+        <v>45324.375</v>
       </c>
       <c r="D101">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="E101">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B102" s="2">
-        <v>45323.96875</v>
+        <v>45324.385416666657</v>
       </c>
       <c r="C102" s="2">
-        <v>45324.208333333343</v>
+        <v>45324.583333333343</v>
       </c>
       <c r="D102">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E102">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45324.416666666657</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45324.625</v>
+      </c>
+      <c r="D103">
+        <v>81</v>
+      </c>
+      <c r="E103">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45324.427083333343</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45324.479166666657</v>
+      </c>
+      <c r="D104">
+        <v>87</v>
+      </c>
+      <c r="E104">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45324.4375</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45324.59375</v>
+      </c>
+      <c r="D105">
+        <v>84</v>
+      </c>
+      <c r="E105">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45324.822916666657</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45325.21875</v>
+      </c>
+      <c r="D106">
+        <v>36</v>
+      </c>
+      <c r="E106">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45324.875</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45325.229166666657</v>
+      </c>
+      <c r="D107">
+        <v>45</v>
+      </c>
+      <c r="E107">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45324.885416666657</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45325.208333333343</v>
+      </c>
+      <c r="D108">
+        <v>72</v>
+      </c>
+      <c r="E108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45324.885416666657</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45325.208333333343</v>
+      </c>
+      <c r="D109">
+        <v>29</v>
+      </c>
+      <c r="E109">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45324.90625</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45325.208333333343</v>
+      </c>
+      <c r="D110">
+        <v>44</v>
+      </c>
+      <c r="E110">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45324.947916666657</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45325.229166666657</v>
+      </c>
+      <c r="D111">
+        <v>49</v>
+      </c>
+      <c r="E111">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45324.979166666657</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45325.229166666657</v>
+      </c>
+      <c r="D112">
+        <v>46</v>
+      </c>
+      <c r="E112">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/資料生成/生成數據/generated_data.xlsx
+++ b/資料生成/生成數據/generated_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2F5F93-2FFA-4BC0-A7D0-67ADBCBF8C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A14250-F2F2-4521-BC14-6712A523A756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="20">
   <si>
     <t>卡片名稱</t>
   </si>
@@ -37,49 +37,49 @@
     <t>SoC(結束)</t>
   </si>
   <si>
-    <t>EAA-779</t>
+    <t>EAA-780</t>
+  </si>
+  <si>
+    <t>EAA-788</t>
   </si>
   <si>
     <t>EAA-793</t>
   </si>
   <si>
-    <t>EAA-782</t>
+    <t>EAA-781</t>
+  </si>
+  <si>
+    <t>下鯤鯓</t>
+  </si>
+  <si>
+    <t>EAA-791</t>
   </si>
   <si>
     <t>EAA-792</t>
   </si>
   <si>
-    <t>EAA-785</t>
-  </si>
-  <si>
     <t>EAA-795</t>
   </si>
   <si>
-    <t>EAA-788</t>
+    <t>EAA-783</t>
   </si>
   <si>
-    <t>EAA-791</t>
+    <t>下鯤鯓-1</t>
+  </si>
+  <si>
+    <t>EAA-786</t>
   </si>
   <si>
     <t>EAA-778</t>
   </si>
   <si>
-    <t>下鯤鯓-1</t>
+    <t>EAA-782</t>
   </si>
   <si>
-    <t>EAA-783</t>
+    <t>EAA-779</t>
   </si>
   <si>
-    <t>EAA-780</t>
-  </si>
-  <si>
-    <t>EAA-786</t>
-  </si>
-  <si>
-    <t>下鯤鯓</t>
-  </si>
-  <si>
-    <t>EAA-781</t>
+    <t>EAA-785</t>
   </si>
 </sst>
 </file>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -490,16 +490,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>45318.354166666657</v>
+        <v>45320.34375</v>
       </c>
       <c r="C2" s="2">
-        <v>45318.354166666657</v>
+        <v>45320.625</v>
       </c>
       <c r="D2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E2">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -507,16 +507,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2">
-        <v>45318.447916666657</v>
+        <v>45320.375</v>
       </c>
       <c r="C3" s="2">
-        <v>45318.5625</v>
+        <v>45320.572916666657</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E3">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -524,16 +524,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>45318.53125</v>
+        <v>45320.385416666657</v>
       </c>
       <c r="C4" s="2">
-        <v>45318.59375</v>
+        <v>45320.510416666657</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="E4">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,16 +541,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>45318.885416666657</v>
+        <v>45320.40625</v>
       </c>
       <c r="C5" s="2">
-        <v>45319.208333333343</v>
+        <v>45320.53125</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="E5">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -558,13 +558,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>45318.885416666657</v>
+        <v>45320.40625</v>
       </c>
       <c r="C6" s="2">
-        <v>45319.208333333343</v>
+        <v>45320.572916666657</v>
       </c>
       <c r="D6">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>94</v>
@@ -575,81 +575,81 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>45318.895833333343</v>
+        <v>45320.510416666657</v>
       </c>
       <c r="C7" s="2">
-        <v>45319.229166666657</v>
+        <v>45320.604166666657</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E7">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>45318.895833333343</v>
+        <v>45320.895833333343</v>
       </c>
       <c r="C8" s="2">
-        <v>45319.208333333343</v>
+        <v>45321.21875</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>45318.90625</v>
+        <v>45320.9375</v>
       </c>
       <c r="C9" s="2">
-        <v>45319.21875</v>
+        <v>45321.229166666657</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E9">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>45318.90625</v>
+        <v>45320.947916666657</v>
       </c>
       <c r="C10" s="2">
-        <v>45319.229166666657</v>
+        <v>45321.21875</v>
       </c>
       <c r="D10">
         <v>46</v>
       </c>
       <c r="E10">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>45318.927083333343</v>
+        <v>45320.947916666657</v>
       </c>
       <c r="C11" s="2">
-        <v>45319.208333333343</v>
+        <v>45321.229166666657</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>90</v>
@@ -657,33 +657,33 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>45318.9375</v>
+        <v>45320.96875</v>
       </c>
       <c r="C12" s="2">
-        <v>45319.208333333343</v>
+        <v>45321.208333333343</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>45318.9375</v>
+        <v>45321.333333333343</v>
       </c>
       <c r="C13" s="2">
-        <v>45319.208333333343</v>
+        <v>45321.541666666657</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>95</v>
@@ -691,169 +691,169 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>45319.354166666657</v>
+        <v>45321.364583333343</v>
       </c>
       <c r="C14" s="2">
-        <v>45319.614583333343</v>
+        <v>45321.541666666657</v>
       </c>
       <c r="D14">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E14">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
-        <v>45319.364583333343</v>
+        <v>45321.5</v>
       </c>
       <c r="C15" s="2">
-        <v>45319.40625</v>
+        <v>45321.552083333343</v>
       </c>
       <c r="D15">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E15">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>45319.395833333343</v>
+        <v>45321.895833333343</v>
       </c>
       <c r="C16" s="2">
-        <v>45319.510416666657</v>
+        <v>45322.21875</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>45319.40625</v>
+        <v>45321.895833333343</v>
       </c>
       <c r="C17" s="2">
-        <v>45319.5625</v>
+        <v>45322.229166666657</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2">
-        <v>45319.458333333343</v>
+        <v>45321.90625</v>
       </c>
       <c r="C18" s="2">
-        <v>45319.604166666657</v>
+        <v>45322.208333333343</v>
       </c>
       <c r="D18">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E18">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45319.53125</v>
+        <v>45321.916666666657</v>
       </c>
       <c r="C19" s="2">
-        <v>45319.572916666657</v>
+        <v>45322.229166666657</v>
       </c>
       <c r="D19">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2">
-        <v>45319.802083333343</v>
+        <v>45321.916666666657</v>
       </c>
       <c r="C20" s="2">
-        <v>45320.208333333343</v>
+        <v>45322.208333333343</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
-        <v>45319.822916666657</v>
+        <v>45321.927083333343</v>
       </c>
       <c r="C21" s="2">
-        <v>45320.208333333343</v>
+        <v>45322.229166666657</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B22" s="2">
-        <v>45319.875</v>
+        <v>45321.947916666657</v>
       </c>
       <c r="C22" s="2">
-        <v>45320.21875</v>
+        <v>45322.208333333343</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2">
-        <v>45319.885416666657</v>
+        <v>45322.21875</v>
       </c>
       <c r="C23" s="2">
-        <v>45320.21875</v>
+        <v>45322.375</v>
       </c>
       <c r="D23">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>92</v>
@@ -861,36 +861,36 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2">
-        <v>45319.885416666657</v>
+        <v>45322.239583333343</v>
       </c>
       <c r="C24" s="2">
-        <v>45320.21875</v>
+        <v>45322.572916666657</v>
       </c>
       <c r="D24">
         <v>48</v>
       </c>
       <c r="E24">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
-        <v>45319.895833333343</v>
+        <v>45322.333333333343</v>
       </c>
       <c r="C25" s="2">
-        <v>45320.208333333343</v>
+        <v>45322.520833333343</v>
       </c>
       <c r="D25">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E25">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -898,64 +898,64 @@
         <v>16</v>
       </c>
       <c r="B26" s="2">
-        <v>45319.90625</v>
+        <v>45322.333333333343</v>
       </c>
       <c r="C26" s="2">
-        <v>45320.21875</v>
+        <v>45322.604166666657</v>
       </c>
       <c r="D26">
+        <v>85</v>
+      </c>
+      <c r="E26">
         <v>94</v>
-      </c>
-      <c r="E26">
-        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B27" s="2">
-        <v>45319.90625</v>
+        <v>45322.34375</v>
       </c>
       <c r="C27" s="2">
-        <v>45320.208333333343</v>
+        <v>45322.4375</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E27">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
-        <v>45319.916666666657</v>
+        <v>45322.354166666657</v>
       </c>
       <c r="C28" s="2">
-        <v>45320.229166666657</v>
+        <v>45322.447916666657</v>
       </c>
       <c r="D28">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2">
-        <v>45319.927083333343</v>
+        <v>45322.385416666657</v>
       </c>
       <c r="C29" s="2">
-        <v>45320.208333333343</v>
+        <v>45322.427083333343</v>
       </c>
       <c r="D29">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <v>91</v>
@@ -963,33 +963,33 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2">
-        <v>45319.9375</v>
+        <v>45322.395833333343</v>
       </c>
       <c r="C30" s="2">
-        <v>45320.21875</v>
+        <v>45322.583333333343</v>
       </c>
       <c r="D30">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E30">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2">
-        <v>45319.9375</v>
+        <v>45322.510416666657</v>
       </c>
       <c r="C31" s="2">
-        <v>45320.208333333343</v>
+        <v>45322.572916666657</v>
       </c>
       <c r="D31">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E31">
         <v>91</v>
@@ -997,87 +997,87 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2">
-        <v>45319.947916666657</v>
+        <v>45322.520833333343</v>
       </c>
       <c r="C32" s="2">
-        <v>45320.21875</v>
+        <v>45322.59375</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E32">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2">
-        <v>45319.958333333343</v>
+        <v>45322.895833333343</v>
       </c>
       <c r="C33" s="2">
-        <v>45320.21875</v>
+        <v>45323.229166666657</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E33">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34" s="2">
-        <v>45320.364583333343</v>
+        <v>45322.895833333343</v>
       </c>
       <c r="C34" s="2">
-        <v>45320.510416666657</v>
+        <v>45323.229166666657</v>
       </c>
       <c r="D34">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B35" s="2">
-        <v>45320.364583333343</v>
+        <v>45322.90625</v>
       </c>
       <c r="C35" s="2">
-        <v>45320.375</v>
+        <v>45323.208333333343</v>
       </c>
       <c r="D35">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E35">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>45320.385416666657</v>
+        <v>45322.90625</v>
       </c>
       <c r="C36" s="2">
-        <v>45320.614583333343</v>
+        <v>45323.21875</v>
       </c>
       <c r="D36">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="E36">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1085,16 +1085,16 @@
         <v>6</v>
       </c>
       <c r="B37" s="2">
-        <v>45320.395833333343</v>
+        <v>45322.90625</v>
       </c>
       <c r="C37" s="2">
-        <v>45320.614583333343</v>
+        <v>45323.229166666657</v>
       </c>
       <c r="D37">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E37">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1102,101 +1102,101 @@
         <v>11</v>
       </c>
       <c r="B38" s="2">
-        <v>45320.416666666657</v>
+        <v>45322.90625</v>
       </c>
       <c r="C38" s="2">
-        <v>45320.458333333343</v>
+        <v>45323.229166666657</v>
       </c>
       <c r="D38">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E38">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B39" s="2">
-        <v>45320.479166666657</v>
+        <v>45322.916666666657</v>
       </c>
       <c r="C39" s="2">
-        <v>45320.5</v>
+        <v>45323.229166666657</v>
       </c>
       <c r="D39">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2">
-        <v>45320.78125</v>
+        <v>45322.916666666657</v>
       </c>
       <c r="C40" s="2">
-        <v>45321.229166666657</v>
+        <v>45323.229166666657</v>
       </c>
       <c r="D40">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E40">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2">
-        <v>45320.854166666657</v>
+        <v>45322.927083333343</v>
       </c>
       <c r="C41" s="2">
-        <v>45321.208333333343</v>
+        <v>45323.21875</v>
       </c>
       <c r="D41">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E41">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2">
-        <v>45320.885416666657</v>
+        <v>45322.9375</v>
       </c>
       <c r="C42" s="2">
-        <v>45321.208333333343</v>
+        <v>45323.208333333343</v>
       </c>
       <c r="D42">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E42">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2">
-        <v>45320.885416666657</v>
+        <v>45322.947916666657</v>
       </c>
       <c r="C43" s="2">
-        <v>45321.21875</v>
+        <v>45323.21875</v>
       </c>
       <c r="D43">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E43">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1204,30 +1204,30 @@
         <v>16</v>
       </c>
       <c r="B44" s="2">
-        <v>45320.885416666657</v>
+        <v>45322.96875</v>
       </c>
       <c r="C44" s="2">
-        <v>45321.208333333343</v>
+        <v>45323.208333333343</v>
       </c>
       <c r="D44">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" s="2">
-        <v>45320.885416666657</v>
+        <v>45323.333333333343</v>
       </c>
       <c r="C45" s="2">
-        <v>45321.229166666657</v>
+        <v>45323.604166666657</v>
       </c>
       <c r="D45">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E45">
         <v>94</v>
@@ -1238,13 +1238,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="2">
-        <v>45320.895833333343</v>
+        <v>45323.385416666657</v>
       </c>
       <c r="C46" s="2">
-        <v>45321.229166666657</v>
+        <v>45323.604166666657</v>
       </c>
       <c r="D46">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E46">
         <v>90</v>
@@ -1252,67 +1252,67 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="2">
-        <v>45320.916666666657</v>
+        <v>45323.385416666657</v>
       </c>
       <c r="C47" s="2">
-        <v>45321.229166666657</v>
+        <v>45323.5</v>
       </c>
       <c r="D47">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="E47">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2">
-        <v>45320.916666666657</v>
+        <v>45323.427083333343</v>
       </c>
       <c r="C48" s="2">
-        <v>45321.21875</v>
+        <v>45323.625</v>
       </c>
       <c r="D48">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="E48">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2">
-        <v>45320.958333333343</v>
+        <v>45323.427083333343</v>
       </c>
       <c r="C49" s="2">
-        <v>45321.208333333343</v>
+        <v>45323.5</v>
       </c>
       <c r="D49">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E49">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B50" s="2">
-        <v>45320.979166666657</v>
+        <v>45323.447916666657</v>
       </c>
       <c r="C50" s="2">
-        <v>45321.21875</v>
+        <v>45323.572916666657</v>
       </c>
       <c r="D50">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E50">
         <v>90</v>
@@ -1320,67 +1320,67 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B51" s="2">
-        <v>45320.989583333343</v>
+        <v>45323.510416666657</v>
       </c>
       <c r="C51" s="2">
-        <v>45321.229166666657</v>
+        <v>45323.53125</v>
       </c>
       <c r="D51">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E51">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2">
-        <v>45321.333333333343</v>
+        <v>45323.895833333343</v>
       </c>
       <c r="C52" s="2">
-        <v>45321.364583333343</v>
+        <v>45324.208333333343</v>
       </c>
       <c r="D52">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B53" s="2">
-        <v>45321.34375</v>
+        <v>45323.895833333343</v>
       </c>
       <c r="C53" s="2">
-        <v>45321.479166666657</v>
+        <v>45324.21875</v>
       </c>
       <c r="D53">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E53">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B54" s="2">
-        <v>45321.34375</v>
+        <v>45323.90625</v>
       </c>
       <c r="C54" s="2">
-        <v>45321.5625</v>
+        <v>45324.21875</v>
       </c>
       <c r="D54">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E54">
         <v>93</v>
@@ -1388,84 +1388,84 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B55" s="2">
-        <v>45321.34375</v>
+        <v>45323.916666666657</v>
       </c>
       <c r="C55" s="2">
-        <v>45321.510416666657</v>
+        <v>45324.208333333343</v>
       </c>
       <c r="D55">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E55">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2">
-        <v>45321.385416666657</v>
+        <v>45323.927083333343</v>
       </c>
       <c r="C56" s="2">
-        <v>45321.552083333343</v>
+        <v>45324.208333333343</v>
       </c>
       <c r="D56">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="E56">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" s="2">
-        <v>45321.4375</v>
+        <v>45323.958333333343</v>
       </c>
       <c r="C57" s="2">
-        <v>45321.520833333343</v>
+        <v>45324.229166666657</v>
       </c>
       <c r="D57">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E57">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2">
-        <v>45321.791666666657</v>
+        <v>45323.96875</v>
       </c>
       <c r="C58" s="2">
-        <v>45322.229166666657</v>
+        <v>45324.21875</v>
       </c>
       <c r="D58">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E58">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B59" s="2">
-        <v>45321.802083333343</v>
+        <v>45323.979166666657</v>
       </c>
       <c r="C59" s="2">
-        <v>45322.21875</v>
+        <v>45324.21875</v>
       </c>
       <c r="D59">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E59">
         <v>91</v>
@@ -1473,16 +1473,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B60" s="2">
-        <v>45321.822916666657</v>
+        <v>45324.28125</v>
       </c>
       <c r="C60" s="2">
-        <v>45322.21875</v>
+        <v>45324.3125</v>
       </c>
       <c r="D60">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E60">
         <v>93</v>
@@ -1490,16 +1490,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B61" s="2">
-        <v>45321.854166666657</v>
+        <v>45324.354166666657</v>
       </c>
       <c r="C61" s="2">
-        <v>45322.229166666657</v>
+        <v>45324.625</v>
       </c>
       <c r="D61">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="E61">
         <v>94</v>
@@ -1507,16 +1507,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B62" s="2">
-        <v>45321.875</v>
+        <v>45324.375</v>
       </c>
       <c r="C62" s="2">
-        <v>45322.21875</v>
+        <v>45324.520833333343</v>
       </c>
       <c r="D62">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E62">
         <v>93</v>
@@ -1524,36 +1524,36 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B63" s="2">
-        <v>45321.875</v>
+        <v>45324.895833333343</v>
       </c>
       <c r="C63" s="2">
-        <v>45322.21875</v>
+        <v>45325.208333333343</v>
       </c>
       <c r="D63">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E63">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B64" s="2">
-        <v>45321.885416666657</v>
+        <v>45324.90625</v>
       </c>
       <c r="C64" s="2">
-        <v>45322.208333333343</v>
+        <v>45325.208333333343</v>
       </c>
       <c r="D64">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E64">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1561,200 +1561,200 @@
         <v>11</v>
       </c>
       <c r="B65" s="2">
-        <v>45321.885416666657</v>
+        <v>45324.927083333343</v>
       </c>
       <c r="C65" s="2">
-        <v>45322.21875</v>
+        <v>45325.21875</v>
       </c>
       <c r="D65">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E65">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B66" s="2">
-        <v>45321.895833333343</v>
+        <v>45324.9375</v>
       </c>
       <c r="C66" s="2">
-        <v>45322.21875</v>
+        <v>45325.208333333343</v>
       </c>
       <c r="D66">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E66">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B67" s="2">
-        <v>45321.895833333343</v>
+        <v>45324.9375</v>
       </c>
       <c r="C67" s="2">
-        <v>45322.229166666657</v>
+        <v>45325.208333333343</v>
       </c>
       <c r="D67">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E67">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B68" s="2">
-        <v>45321.895833333343</v>
+        <v>45324.9375</v>
       </c>
       <c r="C68" s="2">
-        <v>45322.229166666657</v>
+        <v>45325.208333333343</v>
       </c>
       <c r="D68">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E68">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B69" s="2">
-        <v>45321.90625</v>
+        <v>45324.96875</v>
       </c>
       <c r="C69" s="2">
-        <v>45322.208333333343</v>
+        <v>45325.229166666657</v>
       </c>
       <c r="D69">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E69">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B70" s="2">
-        <v>45321.916666666657</v>
+        <v>45324.96875</v>
       </c>
       <c r="C70" s="2">
-        <v>45322.21875</v>
+        <v>45325.21875</v>
       </c>
       <c r="D70">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E70">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B71" s="2">
-        <v>45321.927083333343</v>
+        <v>45325.364583333343</v>
       </c>
       <c r="C71" s="2">
-        <v>45322.208333333343</v>
+        <v>45325.625</v>
       </c>
       <c r="D71">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="E71">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B72" s="2">
-        <v>45321.96875</v>
+        <v>45325.385416666657</v>
       </c>
       <c r="C72" s="2">
-        <v>45322.229166666657</v>
+        <v>45325.625</v>
       </c>
       <c r="D72">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E72">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" s="2">
-        <v>45322.375</v>
+        <v>45325.395833333343</v>
       </c>
       <c r="C73" s="2">
-        <v>45322.510416666657</v>
+        <v>45325.510416666657</v>
       </c>
       <c r="D73">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E73">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B74" s="2">
-        <v>45322.395833333343</v>
+        <v>45325.395833333343</v>
       </c>
       <c r="C74" s="2">
-        <v>45322.447916666657</v>
+        <v>45325.510416666657</v>
       </c>
       <c r="D74">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E74">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B75" s="2">
-        <v>45322.53125</v>
+        <v>45325.40625</v>
       </c>
       <c r="C75" s="2">
-        <v>45322.59375</v>
+        <v>45325.458333333343</v>
       </c>
       <c r="D75">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E75">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B76" s="2">
-        <v>45322.604166666657</v>
+        <v>45325.40625</v>
       </c>
       <c r="C76" s="2">
-        <v>45322.625</v>
+        <v>45325.583333333343</v>
       </c>
       <c r="D76">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <v>90</v>
@@ -1762,53 +1762,53 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" s="2">
-        <v>45322.8125</v>
+        <v>45325.416666666657</v>
       </c>
       <c r="C77" s="2">
-        <v>45323.21875</v>
+        <v>45325.520833333343</v>
       </c>
       <c r="D77">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E77">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B78" s="2">
-        <v>45322.875</v>
+        <v>45325.427083333343</v>
       </c>
       <c r="C78" s="2">
-        <v>45323.229166666657</v>
+        <v>45325.5</v>
       </c>
       <c r="D78">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E78">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B79" s="2">
-        <v>45322.885416666657</v>
+        <v>45325.447916666657</v>
       </c>
       <c r="C79" s="2">
-        <v>45323.208333333343</v>
+        <v>45325.447916666657</v>
       </c>
       <c r="D79">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E79">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1816,135 +1816,135 @@
         <v>6</v>
       </c>
       <c r="B80" s="2">
-        <v>45322.895833333343</v>
+        <v>45325.895833333343</v>
       </c>
       <c r="C80" s="2">
-        <v>45323.21875</v>
+        <v>45326.208333333343</v>
       </c>
       <c r="D80">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E80">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2">
-        <v>45322.895833333343</v>
+        <v>45325.895833333343</v>
       </c>
       <c r="C81" s="2">
-        <v>45323.229166666657</v>
+        <v>45326.21875</v>
       </c>
       <c r="D81">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E81">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B82" s="2">
-        <v>45322.947916666657</v>
+        <v>45325.895833333343</v>
       </c>
       <c r="C82" s="2">
-        <v>45323.21875</v>
+        <v>45326.208333333343</v>
       </c>
       <c r="D82">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E82">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B83" s="2">
-        <v>45322.947916666657</v>
+        <v>45325.895833333343</v>
       </c>
       <c r="C83" s="2">
-        <v>45323.229166666657</v>
+        <v>45326.229166666657</v>
       </c>
       <c r="D83">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E83">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B84" s="2">
-        <v>45322.958333333343</v>
+        <v>45325.90625</v>
       </c>
       <c r="C84" s="2">
-        <v>45323.208333333343</v>
+        <v>45326.208333333343</v>
       </c>
       <c r="D84">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E84">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B85" s="2">
-        <v>45322.958333333343</v>
+        <v>45325.90625</v>
       </c>
       <c r="C85" s="2">
-        <v>45323.21875</v>
+        <v>45326.229166666657</v>
       </c>
       <c r="D85">
         <v>44</v>
       </c>
       <c r="E85">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B86" s="2">
-        <v>45322.989583333343</v>
+        <v>45325.90625</v>
       </c>
       <c r="C86" s="2">
-        <v>45323.208333333343</v>
+        <v>45326.21875</v>
       </c>
       <c r="D86">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E86">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B87" s="2">
-        <v>45323.34375</v>
+        <v>45325.90625</v>
       </c>
       <c r="C87" s="2">
-        <v>45323.604166666657</v>
+        <v>45326.21875</v>
       </c>
       <c r="D87">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E87">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -1952,217 +1952,217 @@
         <v>12</v>
       </c>
       <c r="B88" s="2">
-        <v>45323.354166666657</v>
+        <v>45325.916666666657</v>
       </c>
       <c r="C88" s="2">
-        <v>45323.479166666657</v>
+        <v>45326.229166666657</v>
       </c>
       <c r="D88">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E88">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B89" s="2">
-        <v>45323.375</v>
+        <v>45325.9375</v>
       </c>
       <c r="C89" s="2">
-        <v>45323.5</v>
+        <v>45326.229166666657</v>
       </c>
       <c r="D89">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="E89">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B90" s="2">
-        <v>45323.385416666657</v>
+        <v>45325.947916666657</v>
       </c>
       <c r="C90" s="2">
-        <v>45323.59375</v>
+        <v>45326.208333333343</v>
       </c>
       <c r="D90">
+        <v>44</v>
+      </c>
+      <c r="E90">
         <v>90</v>
-      </c>
-      <c r="E90">
-        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B91" s="2">
-        <v>45323.510416666657</v>
+        <v>45325.947916666657</v>
       </c>
       <c r="C91" s="2">
-        <v>45323.625</v>
+        <v>45326.208333333343</v>
       </c>
       <c r="D91">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="E91">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B92" s="2">
-        <v>45323.75</v>
+        <v>45325.96875</v>
       </c>
       <c r="C92" s="2">
-        <v>45324.21875</v>
+        <v>45326.229166666657</v>
       </c>
       <c r="D92">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E92">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B93" s="2">
-        <v>45323.864583333343</v>
+        <v>45325.979166666657</v>
       </c>
       <c r="C93" s="2">
-        <v>45324.208333333343</v>
+        <v>45326.229166666657</v>
       </c>
       <c r="D93">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E93">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B94" s="2">
-        <v>45323.875</v>
+        <v>45325.979166666657</v>
       </c>
       <c r="C94" s="2">
-        <v>45324.21875</v>
+        <v>45326.208333333343</v>
       </c>
       <c r="D94">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E94">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B95" s="2">
-        <v>45323.90625</v>
+        <v>45326.34375</v>
       </c>
       <c r="C95" s="2">
-        <v>45324.21875</v>
+        <v>45326.395833333343</v>
       </c>
       <c r="D95">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="E95">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B96" s="2">
-        <v>45323.916666666657</v>
+        <v>45326.364583333343</v>
       </c>
       <c r="C96" s="2">
-        <v>45324.208333333343</v>
+        <v>45326.458333333343</v>
       </c>
       <c r="D96">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="E96">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B97" s="2">
-        <v>45323.96875</v>
+        <v>45326.375</v>
       </c>
       <c r="C97" s="2">
-        <v>45324.229166666657</v>
+        <v>45326.427083333343</v>
       </c>
       <c r="D97">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E97">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B98" s="2">
-        <v>45324.21875</v>
+        <v>45326.395833333343</v>
       </c>
       <c r="C98" s="2">
-        <v>45324.28125</v>
+        <v>45326.541666666657</v>
       </c>
       <c r="D98">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B99" s="2">
-        <v>45324.270833333343</v>
+        <v>45326.395833333343</v>
       </c>
       <c r="C99" s="2">
-        <v>45324.5625</v>
+        <v>45326.5</v>
       </c>
       <c r="D99">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E99">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B100" s="2">
-        <v>45324.270833333343</v>
+        <v>45326.395833333343</v>
       </c>
       <c r="C100" s="2">
-        <v>45324.614583333343</v>
+        <v>45326.625</v>
       </c>
       <c r="D100">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E100">
         <v>91</v>
@@ -2170,152 +2170,152 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B101" s="2">
-        <v>45324.354166666657</v>
+        <v>45326.4375</v>
       </c>
       <c r="C101" s="2">
-        <v>45324.375</v>
+        <v>45326.614583333343</v>
       </c>
       <c r="D101">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E101">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B102" s="2">
-        <v>45324.385416666657</v>
+        <v>45326.447916666657</v>
       </c>
       <c r="C102" s="2">
-        <v>45324.583333333343</v>
+        <v>45326.447916666657</v>
       </c>
       <c r="D102">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E102">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B103" s="2">
-        <v>45324.416666666657</v>
+        <v>45326.489583333343</v>
       </c>
       <c r="C103" s="2">
-        <v>45324.625</v>
+        <v>45326.614583333343</v>
       </c>
       <c r="D103">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E103">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B104" s="2">
-        <v>45324.427083333343</v>
+        <v>45326.5</v>
       </c>
       <c r="C104" s="2">
-        <v>45324.479166666657</v>
+        <v>45326.59375</v>
       </c>
       <c r="D104">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E104">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B105" s="2">
-        <v>45324.4375</v>
+        <v>45326.520833333343</v>
       </c>
       <c r="C105" s="2">
-        <v>45324.59375</v>
+        <v>45326.541666666657</v>
       </c>
       <c r="D105">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E105">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B106" s="2">
-        <v>45324.822916666657</v>
+        <v>45326.520833333343</v>
       </c>
       <c r="C106" s="2">
-        <v>45325.21875</v>
+        <v>45326.541666666657</v>
       </c>
       <c r="D106">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="E106">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B107" s="2">
-        <v>45324.875</v>
+        <v>45326.583333333343</v>
       </c>
       <c r="C107" s="2">
-        <v>45325.229166666657</v>
+        <v>45326.59375</v>
       </c>
       <c r="D107">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E107">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B108" s="2">
-        <v>45324.885416666657</v>
+        <v>45326.895833333343</v>
       </c>
       <c r="C108" s="2">
-        <v>45325.208333333343</v>
+        <v>45327.208333333343</v>
       </c>
       <c r="D108">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E108">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B109" s="2">
-        <v>45324.885416666657</v>
+        <v>45326.90625</v>
       </c>
       <c r="C109" s="2">
-        <v>45325.208333333343</v>
+        <v>45327.21875</v>
       </c>
       <c r="D109">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E109">
         <v>93</v>
@@ -2323,53 +2323,172 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B110" s="2">
-        <v>45324.90625</v>
+        <v>45326.916666666657</v>
       </c>
       <c r="C110" s="2">
-        <v>45325.208333333343</v>
+        <v>45327.229166666657</v>
       </c>
       <c r="D110">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E110">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B111" s="2">
-        <v>45324.947916666657</v>
+        <v>45326.916666666657</v>
       </c>
       <c r="C111" s="2">
-        <v>45325.229166666657</v>
+        <v>45327.21875</v>
       </c>
       <c r="D111">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E111">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B112" s="2">
-        <v>45324.979166666657</v>
+        <v>45326.927083333343</v>
       </c>
       <c r="C112" s="2">
-        <v>45325.229166666657</v>
+        <v>45327.208333333343</v>
       </c>
       <c r="D112">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E112">
-        <v>92</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45326.9375</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45327.21875</v>
+      </c>
+      <c r="D113">
+        <v>28</v>
+      </c>
+      <c r="E113">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45326.947916666657</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45327.208333333343</v>
+      </c>
+      <c r="D114">
+        <v>47</v>
+      </c>
+      <c r="E114">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45326.947916666657</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45327.21875</v>
+      </c>
+      <c r="D115">
+        <v>41</v>
+      </c>
+      <c r="E115">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45326.947916666657</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45327.21875</v>
+      </c>
+      <c r="D116">
+        <v>44</v>
+      </c>
+      <c r="E116">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45326.947916666657</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45327.229166666657</v>
+      </c>
+      <c r="D117">
+        <v>51</v>
+      </c>
+      <c r="E117">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45326.958333333343</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45327.208333333343</v>
+      </c>
+      <c r="D118">
+        <v>55</v>
+      </c>
+      <c r="E118">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45326.979166666657</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45327.229166666657</v>
+      </c>
+      <c r="D119">
+        <v>44</v>
+      </c>
+      <c r="E119">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/資料生成/生成數據/generated_data.xlsx
+++ b/資料生成/生成數據/generated_data.xlsx
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A14250-F2F2-4521-BC14-6712A523A756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155BC64-9D4E-456E-BA2F-ED0084948E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,7 +163,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -455,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -468,7 +479,7 @@
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -501,8 +512,12 @@
       <c r="E2">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>(E2 - D2) * 0.01 * 300</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -518,8 +533,12 @@
       <c r="E3">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">(E3 - D3) * 0.01 * 300</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -535,8 +554,12 @@
       <c r="E4">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>42.000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -552,8 +575,12 @@
       <c r="E5">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -569,8 +596,12 @@
       <c r="E6">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -586,8 +617,12 @@
       <c r="E7">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>42.000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -603,8 +638,12 @@
       <c r="E8">
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -620,8 +659,12 @@
       <c r="E9">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -637,8 +680,12 @@
       <c r="E10">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -654,8 +701,12 @@
       <c r="E11">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -671,8 +722,12 @@
       <c r="E12">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -688,8 +743,12 @@
       <c r="E13">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -705,8 +764,12 @@
       <c r="E14">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -722,8 +785,12 @@
       <c r="E15">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>42.000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -739,8 +806,12 @@
       <c r="E16">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>105.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -756,8 +827,12 @@
       <c r="E17">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -773,8 +848,12 @@
       <c r="E18">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -790,8 +869,12 @@
       <c r="E19">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -807,8 +890,12 @@
       <c r="E20">
         <v>93</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -824,8 +911,12 @@
       <c r="E21">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -841,8 +932,12 @@
       <c r="E22">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -858,8 +953,12 @@
       <c r="E23">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -875,8 +974,12 @@
       <c r="E24">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -892,8 +995,12 @@
       <c r="E25">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -909,8 +1016,12 @@
       <c r="E26">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -926,8 +1037,12 @@
       <c r="E27">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -943,8 +1058,12 @@
       <c r="E28">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -960,8 +1079,12 @@
       <c r="E29">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1100,12 @@
       <c r="E30">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -994,8 +1121,12 @@
       <c r="E31">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>42.000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1011,8 +1142,12 @@
       <c r="E32">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1028,8 +1163,12 @@
       <c r="E33">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1045,8 +1184,12 @@
       <c r="E34">
         <v>92</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1062,8 +1205,12 @@
       <c r="E35">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>42.000000000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1079,8 +1226,12 @@
       <c r="E36">
         <v>92</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1096,8 +1247,12 @@
       <c r="E37">
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1113,8 +1268,12 @@
       <c r="E38">
         <v>93</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1130,8 +1289,12 @@
       <c r="E39">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>17</v>
       </c>
@@ -1147,8 +1310,12 @@
       <c r="E40">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>168.00000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1164,8 +1331,12 @@
       <c r="E41">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1181,8 +1352,12 @@
       <c r="E42">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -1198,8 +1373,12 @@
       <c r="E43">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>168.00000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -1215,8 +1394,12 @@
       <c r="E44">
         <v>90</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1232,8 +1415,12 @@
       <c r="E45">
         <v>94</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1249,8 +1436,12 @@
       <c r="E46">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1266,8 +1457,12 @@
       <c r="E47">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1283,8 +1478,12 @@
       <c r="E48">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1300,8 +1499,12 @@
       <c r="E49">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1317,8 +1520,12 @@
       <c r="E50">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -1334,8 +1541,12 @@
       <c r="E51">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -1351,8 +1562,12 @@
       <c r="E52">
         <v>92</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1368,8 +1583,12 @@
       <c r="E53">
         <v>95</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1385,8 +1604,12 @@
       <c r="E54">
         <v>93</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -1402,8 +1625,12 @@
       <c r="E55">
         <v>95</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -1419,8 +1646,12 @@
       <c r="E56">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -1436,8 +1667,12 @@
       <c r="E57">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1453,8 +1688,12 @@
       <c r="E58">
         <v>94</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -1470,8 +1709,12 @@
       <c r="E59">
         <v>91</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -1487,8 +1730,12 @@
       <c r="E60">
         <v>93</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -1504,8 +1751,12 @@
       <c r="E61">
         <v>94</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1521,8 +1772,12 @@
       <c r="E62">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -1538,8 +1793,12 @@
       <c r="E63">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -1555,8 +1814,12 @@
       <c r="E64">
         <v>93</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>171.00000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1572,8 +1835,12 @@
       <c r="E65">
         <v>90</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1589,8 +1856,12 @@
       <c r="E66">
         <v>95</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -1606,8 +1877,12 @@
       <c r="E67">
         <v>92</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <f t="shared" ref="F67:F119" si="1">(E67 - D67) * 0.01 * 300</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -1623,8 +1898,12 @@
       <c r="E68">
         <v>90</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>84.000000000000014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1640,8 +1919,12 @@
       <c r="E69">
         <v>90</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1657,8 +1940,12 @@
       <c r="E70">
         <v>93</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -1674,8 +1961,12 @@
       <c r="E71">
         <v>93</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -1691,8 +1982,12 @@
       <c r="E72">
         <v>93</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -1708,8 +2003,12 @@
       <c r="E73">
         <v>91</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>51.000000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>15</v>
       </c>
@@ -1725,8 +2024,12 @@
       <c r="E74">
         <v>95</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -1742,8 +2045,12 @@
       <c r="E75">
         <v>92</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1759,8 +2066,12 @@
       <c r="E76">
         <v>90</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -1776,8 +2087,12 @@
       <c r="E77">
         <v>95</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>42.000000000000007</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>12</v>
       </c>
@@ -1793,8 +2108,12 @@
       <c r="E78">
         <v>95</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -1810,8 +2129,12 @@
       <c r="E79">
         <v>94</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>21.000000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -1827,8 +2150,12 @@
       <c r="E80">
         <v>92</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -1844,8 +2171,12 @@
       <c r="E81">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -1861,8 +2192,12 @@
       <c r="E82">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>210.00000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -1878,8 +2213,12 @@
       <c r="E83">
         <v>90</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>171.00000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -1895,8 +2234,12 @@
       <c r="E84">
         <v>91</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>123.00000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1912,8 +2255,12 @@
       <c r="E85">
         <v>95</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -1929,8 +2276,12 @@
       <c r="E86">
         <v>91</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>171.00000000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -1946,8 +2297,12 @@
       <c r="E87">
         <v>93</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>12</v>
       </c>
@@ -1963,8 +2318,12 @@
       <c r="E88">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -1980,8 +2339,12 @@
       <c r="E89">
         <v>93</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1997,8 +2360,12 @@
       <c r="E90">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>17</v>
       </c>
@@ -2014,8 +2381,12 @@
       <c r="E91">
         <v>93</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2402,12 @@
       <c r="E92">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -2048,8 +2423,12 @@
       <c r="E93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2065,8 +2444,12 @@
       <c r="E94">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -2082,8 +2465,12 @@
       <c r="E95">
         <v>92</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -2099,8 +2486,12 @@
       <c r="E96">
         <v>90</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2116,8 +2507,12 @@
       <c r="E97">
         <v>92</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -2133,8 +2528,12 @@
       <c r="E98">
         <v>95</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -2150,8 +2549,12 @@
       <c r="E99">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -2167,8 +2570,12 @@
       <c r="E100">
         <v>91</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>14</v>
       </c>
@@ -2184,8 +2591,12 @@
       <c r="E101">
         <v>95</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2201,8 +2612,12 @@
       <c r="E102">
         <v>92</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -2218,8 +2633,12 @@
       <c r="E103">
         <v>90</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>51.000000000000007</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2235,8 +2654,12 @@
       <c r="E104">
         <v>92</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2252,8 +2675,12 @@
       <c r="E105">
         <v>95</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -2269,8 +2696,12 @@
       <c r="E106">
         <v>94</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -2286,8 +2717,12 @@
       <c r="E107">
         <v>92</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -2303,8 +2738,12 @@
       <c r="E108">
         <v>95</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -2320,8 +2759,12 @@
       <c r="E109">
         <v>93</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -2337,8 +2780,12 @@
       <c r="E110">
         <v>92</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -2354,8 +2801,12 @@
       <c r="E111">
         <v>95</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2371,8 +2822,12 @@
       <c r="E112">
         <v>95</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -2388,8 +2843,12 @@
       <c r="E113">
         <v>93</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -2405,8 +2864,12 @@
       <c r="E114">
         <v>93</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>12</v>
       </c>
@@ -2422,8 +2885,12 @@
       <c r="E115">
         <v>90</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>8</v>
       </c>
@@ -2439,8 +2906,12 @@
       <c r="E116">
         <v>91</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>18</v>
       </c>
@@ -2456,8 +2927,12 @@
       <c r="E117">
         <v>93</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -2473,8 +2948,12 @@
       <c r="E118">
         <v>94</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -2489,6 +2968,16 @@
       </c>
       <c r="E119">
         <v>95</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <f>SUM(F2:F119)</f>
+        <v>12195</v>
       </c>
     </row>
   </sheetData>

--- a/資料生成/生成數據/generated_data.xlsx
+++ b/資料生成/生成數據/generated_data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C77684-D381-45C2-AC31-E3B23E793640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61E4F8-61D7-4F8E-AA10-8A414A91825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3570" yWindow="1170" windowWidth="23250" windowHeight="12480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$114</definedName>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="51">
   <si>
     <t>卡片名稱</t>
   </si>
@@ -159,12 +161,64 @@
   <si>
     <t>car13</t>
   </si>
+  <si>
+    <t>開始SOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束SOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOC需求量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據過濾後的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據過濾後的平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數據過濾後的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求電量(度)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>從21：00到5：30可提供的電量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>於夜間可充飽車輛數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21：~ 5：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有充電樁最大功率總和(kW)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>過濾後的後半部平均</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAA-791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +273,15 @@
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -286,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -347,6 +410,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -654,7 +727,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD30"/>
+      <selection pane="bottomLeft" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,11 +784,11 @@
         <v>100</v>
       </c>
       <c r="F2" s="4">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F17" si="0">E2-D2</f>
         <v>21</v>
       </c>
       <c r="G2" s="3">
-        <f>(E2 - D2) * 0.01 * 300</f>
+        <f t="shared" ref="G2:G17" si="1">(E2 - D2) * 0.01 * 300</f>
         <v>63</v>
       </c>
       <c r="H2" s="3">
@@ -740,15 +813,15 @@
         <v>100</v>
       </c>
       <c r="F3" s="4">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G3" s="3">
-        <f>(E3 - D3) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H80" si="0">G3*1000</f>
+        <f t="shared" ref="H3:H80" si="2">G3*1000</f>
         <v>48000</v>
       </c>
     </row>
@@ -769,15 +842,15 @@
         <v>97</v>
       </c>
       <c r="F4" s="4">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G4" s="3">
-        <f>(E4 - D4) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>51.000000000000007</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51000.000000000007</v>
       </c>
     </row>
@@ -798,15 +871,15 @@
         <v>84</v>
       </c>
       <c r="F5" s="4">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="G5" s="3">
-        <f>(E5 - D5) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>81000</v>
       </c>
     </row>
@@ -827,15 +900,15 @@
         <v>100</v>
       </c>
       <c r="F6" s="4">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="G6" s="3">
-        <f>(E6 - D6) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>177000</v>
       </c>
     </row>
@@ -856,15 +929,15 @@
         <v>100</v>
       </c>
       <c r="F7" s="4">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="G7" s="3">
-        <f>(E7 - D7) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>192000</v>
       </c>
     </row>
@@ -885,15 +958,15 @@
         <v>100</v>
       </c>
       <c r="F8" s="4">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="G8" s="3">
-        <f>(E8 - D8) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>264000</v>
       </c>
     </row>
@@ -914,15 +987,15 @@
         <v>100</v>
       </c>
       <c r="F9" s="4">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="G9" s="3">
-        <f>(E9 - D9) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>216000</v>
       </c>
     </row>
@@ -943,15 +1016,15 @@
         <v>100</v>
       </c>
       <c r="F10" s="4">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="G10" s="3">
-        <f>(E10 - D10) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63000</v>
       </c>
     </row>
@@ -972,15 +1045,15 @@
         <v>100</v>
       </c>
       <c r="F11" s="4">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="G11" s="3">
-        <f>(E11 - D11) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>201</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>201000</v>
       </c>
     </row>
@@ -1001,15 +1074,15 @@
         <v>100</v>
       </c>
       <c r="F12" s="4">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G12" s="3">
-        <f>(E12 - D12) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>210.00000000000003</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>210000.00000000003</v>
       </c>
     </row>
@@ -1030,15 +1103,15 @@
         <v>100</v>
       </c>
       <c r="F13" s="4">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G13" s="3">
-        <f>(E13 - D13) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>138000</v>
       </c>
     </row>
@@ -1059,15 +1132,15 @@
         <v>100</v>
       </c>
       <c r="F14" s="4">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="G14" s="3">
-        <f>(E14 - D14) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>204.00000000000003</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>204000.00000000003</v>
       </c>
     </row>
@@ -1088,15 +1161,15 @@
         <v>100</v>
       </c>
       <c r="F15" s="4">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="G15" s="3">
-        <f>(E15 - D15) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>177000</v>
       </c>
     </row>
@@ -1117,15 +1190,15 @@
         <v>100</v>
       </c>
       <c r="F16" s="4">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="G16" s="3">
-        <f>(E16 - D16) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>204.00000000000003</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>204000.00000000003</v>
       </c>
     </row>
@@ -1146,15 +1219,15 @@
         <v>100</v>
       </c>
       <c r="F17" s="4">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="G17" s="3">
-        <f>(E17 - D17) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>135000</v>
       </c>
     </row>
@@ -1175,15 +1248,15 @@
         <v>100</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" ref="F18:F29" si="1">E18-D18</f>
+        <f t="shared" ref="F18:F29" si="3">E18-D18</f>
         <v>30</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" ref="G18:G29" si="2">(E18 - D18) * 0.01 * 300</f>
+        <f t="shared" ref="G18:G29" si="4">(E18 - D18) * 0.01 * 300</f>
         <v>90</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90000</v>
       </c>
     </row>
@@ -1204,15 +1277,15 @@
         <v>100</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>108000</v>
       </c>
     </row>
@@ -1233,15 +1306,15 @@
         <v>100</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>195</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>195000</v>
       </c>
     </row>
@@ -1262,15 +1335,15 @@
         <v>100</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78000</v>
       </c>
     </row>
@@ -1291,15 +1364,15 @@
         <v>100</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -1320,15 +1393,15 @@
         <v>100</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>138000</v>
       </c>
     </row>
@@ -1349,15 +1422,15 @@
         <v>100</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>156</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>156000</v>
       </c>
     </row>
@@ -1378,15 +1451,15 @@
         <v>100</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>177</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>177000</v>
       </c>
     </row>
@@ -1407,15 +1480,15 @@
         <v>100</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>189</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>189000</v>
       </c>
     </row>
@@ -1436,15 +1509,15 @@
         <v>100</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>129000</v>
       </c>
     </row>
@@ -1465,15 +1538,15 @@
         <v>100</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>105.00000000000001</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>105000.00000000001</v>
       </c>
     </row>
@@ -1494,15 +1567,15 @@
         <v>100</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66000</v>
       </c>
     </row>
@@ -1513,11 +1586,11 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="4">
-        <f>E30-D30</f>
+        <f t="shared" ref="F30:F61" si="5">E30-D30</f>
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <f>(E30 - D30) * 0.01 * 300</f>
+        <f t="shared" ref="G30:G61" si="6">(E30 - D30) * 0.01 * 300</f>
         <v>0</v>
       </c>
       <c r="H30" s="13">
@@ -1542,15 +1615,15 @@
         <v>100</v>
       </c>
       <c r="F31" s="4">
-        <f>E31-D31</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="G31" s="3">
-        <f>(E31 - D31) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>42.000000000000007</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42000.000000000007</v>
       </c>
     </row>
@@ -1571,15 +1644,15 @@
         <v>100</v>
       </c>
       <c r="F32" s="4">
-        <f>E32-D32</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="G32" s="3">
-        <f>(E32 - D32) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75000</v>
       </c>
     </row>
@@ -1600,15 +1673,15 @@
         <v>100</v>
       </c>
       <c r="F33" s="4">
-        <f>E33-D33</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G33" s="3">
-        <f>(E33 - D33) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
     </row>
@@ -1629,15 +1702,15 @@
         <v>100</v>
       </c>
       <c r="F34" s="4">
-        <f>E34-D34</f>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="G34" s="3">
-        <f>(E34 - D34) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>99000</v>
       </c>
     </row>
@@ -1658,15 +1731,15 @@
         <v>100</v>
       </c>
       <c r="F35" s="4">
-        <f>E35-D35</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="G35" s="3">
-        <f>(E35 - D35) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>204.00000000000003</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>204000.00000000003</v>
       </c>
     </row>
@@ -1687,15 +1760,15 @@
         <v>100</v>
       </c>
       <c r="F36" s="4">
-        <f>E36-D36</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="G36" s="3">
-        <f>(E36 - D36) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>204.00000000000003</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>204000.00000000003</v>
       </c>
     </row>
@@ -1716,15 +1789,15 @@
         <v>100</v>
       </c>
       <c r="F37" s="4">
-        <f>E37-D37</f>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="G37" s="3">
-        <f>(E37 - D37) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>108</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>108000</v>
       </c>
     </row>
@@ -1745,15 +1818,15 @@
         <v>100</v>
       </c>
       <c r="F38" s="4">
-        <f>E38-D38</f>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="G38" s="3">
-        <f>(E38 - D38) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>153000</v>
       </c>
     </row>
@@ -1774,15 +1847,15 @@
         <v>100</v>
       </c>
       <c r="F39" s="4">
-        <f>E39-D39</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="G39" s="3">
-        <f>(E39 - D39) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>198</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>198000</v>
       </c>
     </row>
@@ -1803,15 +1876,15 @@
         <v>100</v>
       </c>
       <c r="F40" s="4">
-        <f>E40-D40</f>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="G40" s="3">
-        <f>(E40 - D40) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>165000</v>
       </c>
     </row>
@@ -1832,15 +1905,15 @@
         <v>100</v>
       </c>
       <c r="F41" s="4">
-        <f>E41-D41</f>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="G41" s="3">
-        <f>(E41 - D41) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>186000</v>
       </c>
     </row>
@@ -1861,15 +1934,15 @@
         <v>100</v>
       </c>
       <c r="F42" s="4">
-        <f>E42-D42</f>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="G42" s="2">
-        <f>(E42 - D42) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>216</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>216000</v>
       </c>
     </row>
@@ -1890,15 +1963,15 @@
         <v>100</v>
       </c>
       <c r="F43" s="4">
-        <f>E43-D43</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="G43" s="3">
-        <f>(E43 - D43) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63000</v>
       </c>
     </row>
@@ -1919,15 +1992,15 @@
         <v>100</v>
       </c>
       <c r="F44" s="4">
-        <f>E44-D44</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="G44" s="3">
-        <f>(E44 - D44) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39000</v>
       </c>
     </row>
@@ -1948,15 +2021,15 @@
         <v>93</v>
       </c>
       <c r="F45" s="4">
-        <f>E45-D45</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="G45" s="3">
-        <f>(E45 - D45) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33000</v>
       </c>
     </row>
@@ -1977,15 +2050,15 @@
         <v>100</v>
       </c>
       <c r="F46" s="4">
-        <f>E46-D46</f>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G46" s="3">
-        <f>(E46 - D46) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180000</v>
       </c>
     </row>
@@ -2006,15 +2079,15 @@
         <v>100</v>
       </c>
       <c r="F47" s="4">
-        <f>E47-D47</f>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="G47" s="3">
-        <f>(E47 - D47) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>141</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>141000</v>
       </c>
     </row>
@@ -2035,15 +2108,15 @@
         <v>100</v>
       </c>
       <c r="F48" s="4">
-        <f>E48-D48</f>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="G48" s="3">
-        <f>(E48 - D48) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>147000</v>
       </c>
     </row>
@@ -2064,15 +2137,15 @@
         <v>100</v>
       </c>
       <c r="F49" s="4">
-        <f>E49-D49</f>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="G49" s="3">
-        <f>(E49 - D49) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>159000</v>
       </c>
     </row>
@@ -2093,15 +2166,15 @@
         <v>100</v>
       </c>
       <c r="F50" s="4">
-        <f>E50-D50</f>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="G50" s="3">
-        <f>(E50 - D50) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>117</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>117000</v>
       </c>
     </row>
@@ -2122,15 +2195,15 @@
         <v>100</v>
       </c>
       <c r="F51" s="4">
-        <f>E51-D51</f>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="G51" s="3">
-        <f>(E51 - D51) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>171.00000000000003</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>171000.00000000003</v>
       </c>
     </row>
@@ -2151,15 +2224,15 @@
         <v>100</v>
       </c>
       <c r="F52" s="4">
-        <f>E52-D52</f>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="G52" s="3">
-        <f>(E52 - D52) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>168.00000000000003</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>168000.00000000003</v>
       </c>
     </row>
@@ -2180,15 +2253,15 @@
         <v>100</v>
       </c>
       <c r="F53" s="4">
-        <f>E53-D53</f>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="G53" s="3">
-        <f>(E53 - D53) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>186000</v>
       </c>
     </row>
@@ -2209,15 +2282,15 @@
         <v>100</v>
       </c>
       <c r="F54" s="4">
-        <f>E54-D54</f>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="G54" s="3">
-        <f>(E54 - D54) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>174000</v>
       </c>
     </row>
@@ -2238,15 +2311,15 @@
         <v>100</v>
       </c>
       <c r="F55" s="4">
-        <f>E55-D55</f>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="G55" s="2">
-        <f>(E55 - D55) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>177000</v>
       </c>
     </row>
@@ -2267,15 +2340,15 @@
         <v>100</v>
       </c>
       <c r="F56" s="4">
-        <f>E56-D56</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="G56" s="3">
-        <f>(E56 - D56) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48000</v>
       </c>
     </row>
@@ -2296,15 +2369,15 @@
         <v>100</v>
       </c>
       <c r="F57" s="4">
-        <f>E57-D57</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="G57" s="3">
-        <f>(E57 - D57) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>42.000000000000007</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42000.000000000007</v>
       </c>
     </row>
@@ -2325,15 +2398,15 @@
         <v>100</v>
       </c>
       <c r="F58" s="4">
-        <f>E58-D58</f>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="G58" s="3">
-        <f>(E58 - D58) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>93</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93000</v>
       </c>
     </row>
@@ -2354,15 +2427,15 @@
         <v>100</v>
       </c>
       <c r="F59" s="4">
-        <f>E59-D59</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="G59" s="3">
-        <f>(E59 - D59) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>156000</v>
       </c>
     </row>
@@ -2383,15 +2456,15 @@
         <v>100</v>
       </c>
       <c r="F60" s="4">
-        <f>E60-D60</f>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="G60" s="3">
-        <f>(E60 - D60) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
@@ -2412,15 +2485,15 @@
         <v>100</v>
       </c>
       <c r="F61" s="4">
-        <f>E61-D61</f>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="G61" s="3">
-        <f>(E61 - D61) * 0.01 * 300</f>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>189000</v>
       </c>
     </row>
@@ -2441,15 +2514,15 @@
         <v>100</v>
       </c>
       <c r="F62" s="4">
-        <f>E62-D62</f>
+        <f t="shared" ref="F62:F93" si="7">E62-D62</f>
         <v>48</v>
       </c>
       <c r="G62" s="3">
-        <f>(E62 - D62) * 0.01 * 300</f>
+        <f t="shared" ref="G62:G93" si="8">(E62 - D62) * 0.01 * 300</f>
         <v>144</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
     </row>
@@ -2470,15 +2543,15 @@
         <v>52</v>
       </c>
       <c r="F63" s="4">
-        <f>E63-D63</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="G63" s="3">
-        <f>(E63 - D63) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18000</v>
       </c>
     </row>
@@ -2499,15 +2572,15 @@
         <v>100</v>
       </c>
       <c r="F64" s="4">
-        <f>E64-D64</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="G64" s="3">
-        <f>(E64 - D64) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>135000</v>
       </c>
     </row>
@@ -2528,15 +2601,15 @@
         <v>100</v>
       </c>
       <c r="F65" s="4">
-        <f>E65-D65</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="G65" s="3">
-        <f>(E65 - D65) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>153</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>153000</v>
       </c>
     </row>
@@ -2557,15 +2630,15 @@
         <v>100</v>
       </c>
       <c r="F66" s="4">
-        <f>E66-D66</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="G66" s="3">
-        <f>(E66 - D66) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
     </row>
@@ -2586,15 +2659,15 @@
         <v>100</v>
       </c>
       <c r="F67" s="4">
-        <f>E67-D67</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="G67" s="3">
-        <f>(E67 - D67) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
       <c r="H67" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>126000</v>
       </c>
     </row>
@@ -2615,15 +2688,15 @@
         <v>100</v>
       </c>
       <c r="F68" s="4">
-        <f>E68-D68</f>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="G68" s="2">
-        <f>(E68 - D68) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>159</v>
       </c>
       <c r="H68" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>159000</v>
       </c>
     </row>
@@ -2644,15 +2717,15 @@
         <v>100</v>
       </c>
       <c r="F69" s="4">
-        <f>E69-D69</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="G69" s="3">
-        <f>(E69 - D69) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="H69" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>144000</v>
       </c>
     </row>
@@ -2673,15 +2746,15 @@
         <v>100</v>
       </c>
       <c r="F70" s="4">
-        <f>E70-D70</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="G70" s="3">
-        <f>(E70 - D70) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54000</v>
       </c>
     </row>
@@ -2702,15 +2775,15 @@
         <v>95</v>
       </c>
       <c r="F71" s="4">
-        <f>E71-D71</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="G71" s="3">
-        <f>(E71 - D71) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="H71" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18000</v>
       </c>
     </row>
@@ -2731,15 +2804,15 @@
         <v>100</v>
       </c>
       <c r="F72" s="4">
-        <f>E72-D72</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="G72" s="3">
-        <f>(E72 - D72) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="H72" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33000</v>
       </c>
     </row>
@@ -2760,15 +2833,15 @@
         <v>100</v>
       </c>
       <c r="F73" s="4">
-        <f>E73-D73</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="G73" s="3">
-        <f>(E73 - D73) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="H73" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45000</v>
       </c>
     </row>
@@ -2789,15 +2862,15 @@
         <v>100</v>
       </c>
       <c r="F74" s="4">
-        <f>E74-D74</f>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="G74" s="3">
-        <f>(E74 - D74) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75000</v>
       </c>
     </row>
@@ -2818,15 +2891,15 @@
         <v>100</v>
       </c>
       <c r="F75" s="4">
-        <f>E75-D75</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="G75" s="3">
-        <f>(E75 - D75) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>129</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>129000</v>
       </c>
     </row>
@@ -2847,15 +2920,15 @@
         <v>100</v>
       </c>
       <c r="F76" s="4">
-        <f>E76-D76</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="G76" s="3">
-        <f>(E76 - D76) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120000</v>
       </c>
     </row>
@@ -2876,15 +2949,15 @@
         <v>100</v>
       </c>
       <c r="F77" s="4">
-        <f>E77-D77</f>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="G77" s="3">
-        <f>(E77 - D77) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="H77" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>183000</v>
       </c>
     </row>
@@ -2905,15 +2978,15 @@
         <v>100</v>
       </c>
       <c r="F78" s="4">
-        <f>E78-D78</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="G78" s="3">
-        <f>(E78 - D78) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>171.00000000000003</v>
       </c>
       <c r="H78" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>171000.00000000003</v>
       </c>
     </row>
@@ -2934,15 +3007,15 @@
         <v>100</v>
       </c>
       <c r="F79" s="4">
-        <f>E79-D79</f>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="G79" s="3">
-        <f>(E79 - D79) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="H79" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>81000</v>
       </c>
     </row>
@@ -2963,15 +3036,15 @@
         <v>100</v>
       </c>
       <c r="F80" s="4">
-        <f>E80-D80</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="G80" s="3">
-        <f>(E80 - D80) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>153</v>
       </c>
       <c r="H80" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>153000</v>
       </c>
     </row>
@@ -2992,15 +3065,15 @@
         <v>100</v>
       </c>
       <c r="F81" s="4">
-        <f>E81-D81</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="G81" s="3">
-        <f>(E81 - D81) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>105.00000000000001</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" ref="H81:H113" si="3">G81*1000</f>
+        <f t="shared" ref="H81:H113" si="9">G81*1000</f>
         <v>105000.00000000001</v>
       </c>
     </row>
@@ -3021,15 +3094,15 @@
         <v>100</v>
       </c>
       <c r="F82" s="4">
-        <f>E82-D82</f>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="G82" s="3">
-        <f>(E82 - D82) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>156</v>
       </c>
       <c r="H82" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>156000</v>
       </c>
     </row>
@@ -3050,15 +3123,15 @@
         <v>100</v>
       </c>
       <c r="F83" s="4">
-        <f>E83-D83</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="G83" s="2">
-        <f>(E83 - D83) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>141</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>141000</v>
       </c>
     </row>
@@ -3079,15 +3152,15 @@
         <v>94</v>
       </c>
       <c r="F84" s="4">
-        <f>E84-D84</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="G84" s="3">
-        <f>(E84 - D84) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="H84" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
     </row>
@@ -3108,15 +3181,15 @@
         <v>96</v>
       </c>
       <c r="F85" s="4">
-        <f>E85-D85</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="G85" s="3">
-        <f>(E85 - D85) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="H85" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>30000</v>
       </c>
     </row>
@@ -3137,15 +3210,15 @@
         <v>100</v>
       </c>
       <c r="F86" s="4">
-        <f>E86-D86</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="G86" s="3">
-        <f>(E86 - D86) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="H86" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>45000</v>
       </c>
     </row>
@@ -3166,15 +3239,15 @@
         <v>100</v>
       </c>
       <c r="F87" s="4">
-        <f>E87-D87</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="G87" s="3">
-        <f>(E87 - D87) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>153</v>
       </c>
       <c r="H87" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>153000</v>
       </c>
     </row>
@@ -3195,15 +3268,15 @@
         <v>100</v>
       </c>
       <c r="F88" s="4">
-        <f>E88-D88</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="G88" s="3">
-        <f>(E88 - D88) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>144</v>
       </c>
       <c r="H88" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>144000</v>
       </c>
     </row>
@@ -3224,15 +3297,15 @@
         <v>100</v>
       </c>
       <c r="F89" s="4">
-        <f>E89-D89</f>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="G89" s="3">
-        <f>(E89 - D89) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>207.00000000000003</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>207000.00000000003</v>
       </c>
     </row>
@@ -3253,15 +3326,15 @@
         <v>100</v>
       </c>
       <c r="F90" s="4">
-        <f>E90-D90</f>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="G90" s="3">
-        <f>(E90 - D90) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>201</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>201000</v>
       </c>
     </row>
@@ -3282,15 +3355,15 @@
         <v>100</v>
       </c>
       <c r="F91" s="4">
-        <f>E91-D91</f>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="G91" s="3">
-        <f>(E91 - D91) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>165</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>165000</v>
       </c>
     </row>
@@ -3311,15 +3384,15 @@
         <v>100</v>
       </c>
       <c r="F92" s="4">
-        <f>E92-D92</f>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="G92" s="3">
-        <f>(E92 - D92) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>159</v>
       </c>
       <c r="H92" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>159000</v>
       </c>
     </row>
@@ -3340,15 +3413,15 @@
         <v>100</v>
       </c>
       <c r="F93" s="4">
-        <f>E93-D93</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="G93" s="3">
-        <f>(E93 - D93) * 0.01 * 300</f>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="H93" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>150000</v>
       </c>
     </row>
@@ -3369,15 +3442,15 @@
         <v>100</v>
       </c>
       <c r="F94" s="4">
-        <f>E94-D94</f>
+        <f t="shared" ref="F94:F113" si="10">E94-D94</f>
         <v>57</v>
       </c>
       <c r="G94" s="3">
-        <f>(E94 - D94) * 0.01 * 300</f>
+        <f t="shared" ref="G94:G113" si="11">(E94 - D94) * 0.01 * 300</f>
         <v>171.00000000000003</v>
       </c>
       <c r="H94" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>171000.00000000003</v>
       </c>
     </row>
@@ -3398,15 +3471,15 @@
         <v>100</v>
       </c>
       <c r="F95" s="4">
-        <f>E95-D95</f>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="G95" s="3">
-        <f>(E95 - D95) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>183</v>
       </c>
       <c r="H95" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>183000</v>
       </c>
     </row>
@@ -3427,15 +3500,15 @@
         <v>100</v>
       </c>
       <c r="F96" s="4">
-        <f>E96-D96</f>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="G96" s="2">
-        <f>(E96 - D96) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>132</v>
       </c>
       <c r="H96" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>132000</v>
       </c>
     </row>
@@ -3456,15 +3529,15 @@
         <v>100</v>
       </c>
       <c r="F97" s="4">
-        <f>E97-D97</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="G97" s="3">
-        <f>(E97 - D97) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="H97" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>39000</v>
       </c>
     </row>
@@ -3485,15 +3558,15 @@
         <v>61</v>
       </c>
       <c r="F98" s="4">
-        <f>E98-D98</f>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="G98" s="3">
-        <f>(E98 - D98) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>105.00000000000001</v>
       </c>
       <c r="H98" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>105000.00000000001</v>
       </c>
     </row>
@@ -3514,15 +3587,15 @@
         <v>100</v>
       </c>
       <c r="F99" s="4">
-        <f>E99-D99</f>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="G99" s="3">
-        <f>(E99 - D99) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>222</v>
       </c>
       <c r="H99" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>222000</v>
       </c>
     </row>
@@ -3543,15 +3616,15 @@
         <v>92</v>
       </c>
       <c r="F100" s="4">
-        <f>E100-D100</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="G100" s="3">
-        <f>(E100 - D100) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="H100" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>24000</v>
       </c>
     </row>
@@ -3572,15 +3645,15 @@
         <v>100</v>
       </c>
       <c r="F101" s="4">
-        <f>E101-D101</f>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="G101" s="3">
-        <f>(E101 - D101) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>225</v>
       </c>
       <c r="H101" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>225000</v>
       </c>
     </row>
@@ -3601,15 +3674,15 @@
         <v>100</v>
       </c>
       <c r="F102" s="4">
-        <f>E102-D102</f>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="G102" s="3">
-        <f>(E102 - D102) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>117</v>
       </c>
       <c r="H102" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>117000</v>
       </c>
     </row>
@@ -3630,15 +3703,15 @@
         <v>100</v>
       </c>
       <c r="F103" s="4">
-        <f>E103-D103</f>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="G103" s="3">
-        <f>(E103 - D103) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>81</v>
       </c>
       <c r="H103" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>81000</v>
       </c>
     </row>
@@ -3659,15 +3732,15 @@
         <v>100</v>
       </c>
       <c r="F104" s="4">
-        <f>E104-D104</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="G104" s="3">
-        <f>(E104 - D104) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>84.000000000000014</v>
       </c>
       <c r="H104" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>84000.000000000015</v>
       </c>
     </row>
@@ -3688,15 +3761,15 @@
         <v>100</v>
       </c>
       <c r="F105" s="4">
-        <f>E105-D105</f>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="G105" s="3">
-        <f>(E105 - D105) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="H105" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>144000</v>
       </c>
     </row>
@@ -3717,15 +3790,15 @@
         <v>100</v>
       </c>
       <c r="F106" s="4">
-        <f>E106-D106</f>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="G106" s="3">
-        <f>(E106 - D106) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>174</v>
       </c>
       <c r="H106" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>174000</v>
       </c>
     </row>
@@ -3746,15 +3819,15 @@
         <v>100</v>
       </c>
       <c r="F107" s="4">
-        <f>E107-D107</f>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="G107" s="3">
-        <f>(E107 - D107) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>147</v>
       </c>
       <c r="H107" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>147000</v>
       </c>
     </row>
@@ -3775,15 +3848,15 @@
         <v>100</v>
       </c>
       <c r="F108" s="4">
-        <f>E108-D108</f>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="G108" s="3">
-        <f>(E108 - D108) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>171.00000000000003</v>
       </c>
       <c r="H108" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>171000.00000000003</v>
       </c>
     </row>
@@ -3804,15 +3877,15 @@
         <v>100</v>
       </c>
       <c r="F109" s="4">
-        <f>E109-D109</f>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="G109" s="3">
-        <f>(E109 - D109) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>87000</v>
       </c>
     </row>
@@ -3833,15 +3906,15 @@
         <v>100</v>
       </c>
       <c r="F110" s="4">
-        <f>E110-D110</f>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="G110" s="3">
-        <f>(E110 - D110) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>159</v>
       </c>
       <c r="H110" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>159000</v>
       </c>
     </row>
@@ -3862,15 +3935,15 @@
         <v>100</v>
       </c>
       <c r="F111" s="4">
-        <f>E111-D111</f>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="G111" s="3">
-        <f>(E111 - D111) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>165</v>
       </c>
       <c r="H111" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>165000</v>
       </c>
     </row>
@@ -3891,15 +3964,15 @@
         <v>100</v>
       </c>
       <c r="F112" s="4">
-        <f>E112-D112</f>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="G112" s="3">
-        <f>(E112 - D112) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>171.00000000000003</v>
       </c>
       <c r="H112" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>171000.00000000003</v>
       </c>
     </row>
@@ -3920,15 +3993,15 @@
         <v>100</v>
       </c>
       <c r="F113" s="4">
-        <f>E113-D113</f>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="G113" s="3">
-        <f>(E113 - D113) * 0.01 * 300</f>
+        <f t="shared" si="11"/>
         <v>153</v>
       </c>
       <c r="H113" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>153000</v>
       </c>
     </row>
@@ -3952,10 +4025,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B43B61-6E6D-44A6-B49F-73F15665CAD2}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="A24" sqref="A24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4011,15 +4084,15 @@
         <v>100</v>
       </c>
       <c r="F2" s="4">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F25" si="0">E2-D2</f>
         <v>21</v>
       </c>
       <c r="G2" s="3">
-        <f>(E2 - D2) * 0.01 * 300</f>
+        <f t="shared" ref="G2:G25" si="1">(E2 - D2) * 0.01 * 300</f>
         <v>63</v>
       </c>
       <c r="H2" s="3">
-        <f>G2*1000</f>
+        <f t="shared" ref="H2:H26" si="2">G2*1000</f>
         <v>63000</v>
       </c>
     </row>
@@ -4040,15 +4113,15 @@
         <v>100</v>
       </c>
       <c r="F3" s="4">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G3" s="3">
-        <f>(E3 - D3) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="H3" s="3">
-        <f>G3*1000</f>
+        <f t="shared" si="2"/>
         <v>48000</v>
       </c>
     </row>
@@ -4069,15 +4142,15 @@
         <v>97</v>
       </c>
       <c r="F4" s="4">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G4" s="3">
-        <f>(E4 - D4) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>51.000000000000007</v>
       </c>
       <c r="H4" s="3">
-        <f>G4*1000</f>
+        <f t="shared" si="2"/>
         <v>51000.000000000007</v>
       </c>
     </row>
@@ -4098,15 +4171,15 @@
         <v>84</v>
       </c>
       <c r="F5" s="4">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="G5" s="3">
-        <f>(E5 - D5) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="H5" s="3">
-        <f>G5*1000</f>
+        <f t="shared" si="2"/>
         <v>81000</v>
       </c>
     </row>
@@ -4127,15 +4200,15 @@
         <v>100</v>
       </c>
       <c r="F6" s="16">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="G6" s="17">
-        <f>(E6 - D6) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="H6" s="17">
-        <f>G6*1000</f>
+        <f t="shared" si="2"/>
         <v>78000</v>
       </c>
     </row>
@@ -4156,15 +4229,15 @@
         <v>100</v>
       </c>
       <c r="F7" s="16">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="G7" s="17">
-        <f>(E7 - D7) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
       <c r="H7" s="17">
-        <f>G7*1000</f>
+        <f t="shared" si="2"/>
         <v>177000</v>
       </c>
     </row>
@@ -4185,15 +4258,15 @@
         <v>100</v>
       </c>
       <c r="F8" s="16">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="G8" s="17">
-        <f>(E8 - D8) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>192</v>
       </c>
       <c r="H8" s="17">
-        <f>G8*1000</f>
+        <f t="shared" si="2"/>
         <v>192000</v>
       </c>
     </row>
@@ -4214,15 +4287,15 @@
         <v>100</v>
       </c>
       <c r="F9" s="16">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="G9" s="17">
-        <f>(E9 - D9) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
       <c r="H9" s="17">
-        <f>G9*1000</f>
+        <f t="shared" si="2"/>
         <v>264000</v>
       </c>
     </row>
@@ -4243,15 +4316,15 @@
         <v>100</v>
       </c>
       <c r="F10" s="16">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="G10" s="17">
-        <f>(E10 - D10) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="H10" s="17">
-        <f>G10*1000</f>
+        <f t="shared" si="2"/>
         <v>216000</v>
       </c>
     </row>
@@ -4272,15 +4345,15 @@
         <v>100</v>
       </c>
       <c r="F11" s="16">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="G11" s="17">
-        <f>(E11 - D11) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="H11" s="17">
-        <f>G11*1000</f>
+        <f t="shared" si="2"/>
         <v>63000</v>
       </c>
     </row>
@@ -4301,15 +4374,15 @@
         <v>100</v>
       </c>
       <c r="F12" s="16">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G12" s="17">
-        <f>(E12 - D12) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="H12" s="17">
-        <f>G12*1000</f>
+        <f t="shared" si="2"/>
         <v>87000</v>
       </c>
     </row>
@@ -4330,15 +4403,15 @@
         <v>100</v>
       </c>
       <c r="F13" s="16">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="G13" s="17">
-        <f>(E13 - D13) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>201</v>
       </c>
       <c r="H13" s="17">
-        <f>G13*1000</f>
+        <f t="shared" si="2"/>
         <v>201000</v>
       </c>
     </row>
@@ -4359,15 +4432,15 @@
         <v>100</v>
       </c>
       <c r="F14" s="16">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G14" s="17">
-        <f>(E14 - D14) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>210.00000000000003</v>
       </c>
       <c r="H14" s="17">
-        <f>G14*1000</f>
+        <f t="shared" si="2"/>
         <v>210000.00000000003</v>
       </c>
     </row>
@@ -4388,21 +4461,21 @@
         <v>100</v>
       </c>
       <c r="F15" s="16">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="G15" s="17">
-        <f>(E15 - D15) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>84.000000000000014</v>
       </c>
       <c r="H15" s="17">
-        <f>G15*1000</f>
+        <f t="shared" si="2"/>
         <v>84000.000000000015</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B16" s="19">
         <v>45051.934988425928</v>
@@ -4417,19 +4490,19 @@
         <v>100</v>
       </c>
       <c r="F16" s="20">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G16" s="21">
-        <f>(E16 - D16) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="H16" s="21">
-        <f>G16*1000</f>
+        <f t="shared" si="2"/>
         <v>138000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>34</v>
       </c>
@@ -4446,19 +4519,19 @@
         <v>100</v>
       </c>
       <c r="F17" s="24">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G17" s="25">
-        <f>(E17 - D17) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="H17" s="25">
-        <f>G17*1000</f>
+        <f t="shared" si="2"/>
         <v>96000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>26</v>
       </c>
@@ -4475,19 +4548,19 @@
         <v>100</v>
       </c>
       <c r="F18" s="24">
-        <f>E18-D18</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G18" s="25">
-        <f>(E18 - D18) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="H18" s="25">
-        <f>G18*1000</f>
+        <f t="shared" si="2"/>
         <v>90000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>31</v>
       </c>
@@ -4504,19 +4577,19 @@
         <v>100</v>
       </c>
       <c r="F19" s="24">
-        <f>E19-D19</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G19" s="25">
-        <f>(E19 - D19) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="H19" s="25">
-        <f>G19*1000</f>
+        <f t="shared" si="2"/>
         <v>138000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>27</v>
       </c>
@@ -4533,19 +4606,19 @@
         <v>100</v>
       </c>
       <c r="F20" s="24">
-        <f>E20-D20</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G20" s="25">
-        <f>(E20 - D20) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="H20" s="25">
-        <f>G20*1000</f>
+        <f t="shared" si="2"/>
         <v>108000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>11</v>
       </c>
@@ -4562,19 +4635,19 @@
         <v>100</v>
       </c>
       <c r="F21" s="24">
-        <f>E21-D21</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="G21" s="25">
-        <f>(E21 - D21) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>204.00000000000003</v>
       </c>
       <c r="H21" s="25">
-        <f>G21*1000</f>
+        <f t="shared" si="2"/>
         <v>204000.00000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>10</v>
       </c>
@@ -4591,19 +4664,19 @@
         <v>100</v>
       </c>
       <c r="F22" s="24">
-        <f>E22-D22</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="G22" s="25">
-        <f>(E22 - D22) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
       <c r="H22" s="25">
-        <f>G22*1000</f>
+        <f t="shared" si="2"/>
         <v>177000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>7</v>
       </c>
@@ -4620,19 +4693,19 @@
         <v>100</v>
       </c>
       <c r="F23" s="24">
-        <f>E23-D23</f>
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="G23" s="25">
-        <f>(E23 - D23) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>204.00000000000003</v>
       </c>
       <c r="H23" s="25">
-        <f>G23*1000</f>
+        <f t="shared" si="2"/>
         <v>204000.00000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>36</v>
       </c>
@@ -4649,19 +4722,19 @@
         <v>100</v>
       </c>
       <c r="F24" s="24">
-        <f>E24-D24</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G24" s="25">
-        <f>(E24 - D24) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>105.00000000000001</v>
       </c>
       <c r="H24" s="25">
-        <f>G24*1000</f>
+        <f t="shared" si="2"/>
         <v>105000.00000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
@@ -4678,27 +4751,32 @@
         <v>100</v>
       </c>
       <c r="F25" s="24">
-        <f>E25-D25</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G25" s="25">
-        <f>(E25 - D25) * 0.01 * 300</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="H25" s="25">
-        <f>G25*1000</f>
+        <f t="shared" si="2"/>
         <v>72000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="26"/>
+      <c r="H26" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4706,7 +4784,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4714,7 +4792,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4722,7 +4800,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4733,12 +4811,22 @@
         <v>0</v>
       </c>
       <c r="G30" s="3">
-        <f>(E30 - D30) * 0.01 * 300</f>
-        <v>0</v>
+        <f>SUM(G2:G26)</f>
+        <v>3147</v>
       </c>
       <c r="H30" s="13">
         <f>SUM(H2:H29)</f>
         <v>3147000</v>
+      </c>
+      <c r="K30" s="2">
+        <f>H17+H18+H19+H20+H21+H23+H24</f>
+        <v>945000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>H30*60</f>
+        <v>188820000</v>
       </c>
     </row>
   </sheetData>
@@ -4749,5 +4837,2585 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7AEBFB-E013-4D1C-9AE2-5AC2814AF588}">
+  <dimension ref="A1:L144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" style="27" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="27"/>
+    <col min="9" max="9" width="22.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>45</v>
+      </c>
+      <c r="B2" s="27">
+        <v>100</v>
+      </c>
+      <c r="C2" s="27">
+        <f>B2-A2</f>
+        <v>55</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="27">
+        <f>F3*F4</f>
+        <v>4250</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="27">
+        <v>82</v>
+      </c>
+      <c r="K2" s="27">
+        <f>J2*0.01*300</f>
+        <v>246.00000000000003</v>
+      </c>
+      <c r="L2" s="27">
+        <f>F2/K2</f>
+        <v>17.27642276422764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>48</v>
+      </c>
+      <c r="B3" s="27">
+        <v>100</v>
+      </c>
+      <c r="C3" s="27">
+        <f t="shared" ref="C3:C66" si="0">B3-A3</f>
+        <v>52</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="27">
+        <v>8.5</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="27">
+        <v>56.15</v>
+      </c>
+      <c r="K3" s="27">
+        <f t="shared" ref="K3:K5" si="1">J3*0.01*300</f>
+        <v>168.45</v>
+      </c>
+      <c r="L3" s="27">
+        <f>F2/K3</f>
+        <v>25.230038587117839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>57</v>
+      </c>
+      <c r="B4" s="27">
+        <v>100</v>
+      </c>
+      <c r="C4" s="27">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="27">
+        <v>500</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="27">
+        <v>27</v>
+      </c>
+      <c r="K4" s="27">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="L4" s="27">
+        <f>F2/K4</f>
+        <v>52.469135802469133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>22</v>
+      </c>
+      <c r="B5" s="27">
+        <v>100</v>
+      </c>
+      <c r="C5" s="27">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="27">
+        <v>60.2</v>
+      </c>
+      <c r="K5" s="27">
+        <f t="shared" si="1"/>
+        <v>180.60000000000002</v>
+      </c>
+      <c r="L5" s="27">
+        <f>F2/K5</f>
+        <v>23.532668881506087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>41</v>
+      </c>
+      <c r="B6" s="27">
+        <v>100</v>
+      </c>
+      <c r="C6" s="27">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>63</v>
+      </c>
+      <c r="B7" s="27">
+        <v>100</v>
+      </c>
+      <c r="C7" s="27">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>48</v>
+      </c>
+      <c r="B8" s="27">
+        <v>100</v>
+      </c>
+      <c r="C8" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>44</v>
+      </c>
+      <c r="B9" s="27">
+        <v>100</v>
+      </c>
+      <c r="C9" s="27">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>46</v>
+      </c>
+      <c r="B10" s="27">
+        <v>100</v>
+      </c>
+      <c r="C10" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>43</v>
+      </c>
+      <c r="B11" s="27">
+        <v>100</v>
+      </c>
+      <c r="C11" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>51</v>
+      </c>
+      <c r="B12" s="27">
+        <v>100</v>
+      </c>
+      <c r="C12" s="27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>56</v>
+      </c>
+      <c r="B13" s="27">
+        <v>100</v>
+      </c>
+      <c r="C13" s="27">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>39</v>
+      </c>
+      <c r="B14" s="27">
+        <v>100</v>
+      </c>
+      <c r="C14" s="27">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>51</v>
+      </c>
+      <c r="B15" s="27">
+        <v>100</v>
+      </c>
+      <c r="C15" s="27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>38</v>
+      </c>
+      <c r="B16" s="27">
+        <v>100</v>
+      </c>
+      <c r="C16" s="27">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>31</v>
+      </c>
+      <c r="B17" s="27">
+        <v>100</v>
+      </c>
+      <c r="C17" s="27">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>73</v>
+      </c>
+      <c r="B18" s="27">
+        <v>100</v>
+      </c>
+      <c r="C18" s="27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>67</v>
+      </c>
+      <c r="B19" s="27">
+        <v>100</v>
+      </c>
+      <c r="C19" s="27">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>42</v>
+      </c>
+      <c r="B20" s="27">
+        <v>100</v>
+      </c>
+      <c r="C20" s="27">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>32</v>
+      </c>
+      <c r="B21" s="27">
+        <v>100</v>
+      </c>
+      <c r="C21" s="27">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>44</v>
+      </c>
+      <c r="B22" s="27">
+        <v>100</v>
+      </c>
+      <c r="C22" s="27">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>51</v>
+      </c>
+      <c r="B23" s="27">
+        <v>100</v>
+      </c>
+      <c r="C23" s="27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>43</v>
+      </c>
+      <c r="B24" s="27">
+        <v>100</v>
+      </c>
+      <c r="C24" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>44</v>
+      </c>
+      <c r="B25" s="27">
+        <v>100</v>
+      </c>
+      <c r="C25" s="27">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>98</v>
+      </c>
+      <c r="B26" s="27">
+        <v>100</v>
+      </c>
+      <c r="C26" s="27">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>38</v>
+      </c>
+      <c r="B27" s="27">
+        <v>100</v>
+      </c>
+      <c r="C27" s="27">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>46</v>
+      </c>
+      <c r="B28" s="27">
+        <v>100</v>
+      </c>
+      <c r="C28" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>38</v>
+      </c>
+      <c r="B29" s="27">
+        <v>67</v>
+      </c>
+      <c r="C29" s="27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>41</v>
+      </c>
+      <c r="B30" s="27">
+        <v>72</v>
+      </c>
+      <c r="C30" s="27">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>49</v>
+      </c>
+      <c r="B31" s="27">
+        <v>100</v>
+      </c>
+      <c r="C31" s="27">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>43</v>
+      </c>
+      <c r="B32" s="27">
+        <v>100</v>
+      </c>
+      <c r="C32" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>45</v>
+      </c>
+      <c r="B33" s="27">
+        <v>100</v>
+      </c>
+      <c r="C33" s="27">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>47</v>
+      </c>
+      <c r="B34" s="27">
+        <v>100</v>
+      </c>
+      <c r="C34" s="27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>71</v>
+      </c>
+      <c r="B35" s="27">
+        <v>100</v>
+      </c>
+      <c r="C35" s="27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>43</v>
+      </c>
+      <c r="B36" s="27">
+        <v>100</v>
+      </c>
+      <c r="C36" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>51</v>
+      </c>
+      <c r="B37" s="27">
+        <v>100</v>
+      </c>
+      <c r="C37" s="27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
+        <v>42</v>
+      </c>
+      <c r="B38" s="27">
+        <v>100</v>
+      </c>
+      <c r="C38" s="27">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>44</v>
+      </c>
+      <c r="B39" s="27">
+        <v>100</v>
+      </c>
+      <c r="C39" s="27">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>34</v>
+      </c>
+      <c r="B40" s="27">
+        <v>100</v>
+      </c>
+      <c r="C40" s="27">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>56</v>
+      </c>
+      <c r="B41" s="27">
+        <v>100</v>
+      </c>
+      <c r="C41" s="27">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="27">
+        <v>47</v>
+      </c>
+      <c r="B42" s="27">
+        <v>100</v>
+      </c>
+      <c r="C42" s="27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>47</v>
+      </c>
+      <c r="B43" s="27">
+        <v>47</v>
+      </c>
+      <c r="C43" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <v>43</v>
+      </c>
+      <c r="B44" s="27">
+        <v>100</v>
+      </c>
+      <c r="C44" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>42</v>
+      </c>
+      <c r="B45" s="27">
+        <v>42</v>
+      </c>
+      <c r="C45" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <v>100</v>
+      </c>
+      <c r="B46" s="27">
+        <v>100</v>
+      </c>
+      <c r="C46" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>39</v>
+      </c>
+      <c r="B47" s="27">
+        <v>46</v>
+      </c>
+      <c r="C47" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <v>50</v>
+      </c>
+      <c r="B48" s="27">
+        <v>100</v>
+      </c>
+      <c r="C48" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>38</v>
+      </c>
+      <c r="B49" s="27">
+        <v>100</v>
+      </c>
+      <c r="C49" s="27">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <v>47</v>
+      </c>
+      <c r="B50" s="27">
+        <v>100</v>
+      </c>
+      <c r="C50" s="27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <v>45</v>
+      </c>
+      <c r="B51" s="27">
+        <v>100</v>
+      </c>
+      <c r="C51" s="27">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>33</v>
+      </c>
+      <c r="B52" s="27">
+        <v>100</v>
+      </c>
+      <c r="C52" s="27">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
+        <v>31</v>
+      </c>
+      <c r="B53" s="27">
+        <v>100</v>
+      </c>
+      <c r="C53" s="27">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
+        <v>52</v>
+      </c>
+      <c r="B54" s="27">
+        <v>100</v>
+      </c>
+      <c r="C54" s="27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="27">
+        <v>49</v>
+      </c>
+      <c r="B55" s="27">
+        <v>100</v>
+      </c>
+      <c r="C55" s="27">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <v>31</v>
+      </c>
+      <c r="B56" s="27">
+        <v>100</v>
+      </c>
+      <c r="C56" s="27">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
+        <v>53</v>
+      </c>
+      <c r="B57" s="27">
+        <v>100</v>
+      </c>
+      <c r="C57" s="27">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <v>48</v>
+      </c>
+      <c r="B58" s="27">
+        <v>100</v>
+      </c>
+      <c r="C58" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="27">
+        <v>65</v>
+      </c>
+      <c r="B59" s="27">
+        <v>100</v>
+      </c>
+      <c r="C59" s="27">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="27">
+        <v>49</v>
+      </c>
+      <c r="B60" s="27">
+        <v>100</v>
+      </c>
+      <c r="C60" s="27">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="27">
+        <v>48</v>
+      </c>
+      <c r="B61" s="27">
+        <v>100</v>
+      </c>
+      <c r="C61" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="27">
+        <v>73</v>
+      </c>
+      <c r="B62" s="27">
+        <v>100</v>
+      </c>
+      <c r="C62" s="27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="27">
+        <v>43</v>
+      </c>
+      <c r="B63" s="27">
+        <v>100</v>
+      </c>
+      <c r="C63" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="27">
+        <v>39</v>
+      </c>
+      <c r="B64" s="27">
+        <v>100</v>
+      </c>
+      <c r="C64" s="27">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="27">
+        <v>60</v>
+      </c>
+      <c r="B65" s="27">
+        <v>100</v>
+      </c>
+      <c r="C65" s="27">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="27">
+        <v>57</v>
+      </c>
+      <c r="B66" s="27">
+        <v>100</v>
+      </c>
+      <c r="C66" s="27">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="27">
+        <v>42</v>
+      </c>
+      <c r="B67" s="27">
+        <v>100</v>
+      </c>
+      <c r="C67" s="27">
+        <f t="shared" ref="C67:C130" si="2">B67-A67</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="27">
+        <v>47</v>
+      </c>
+      <c r="B68" s="27">
+        <v>100</v>
+      </c>
+      <c r="C68" s="27">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="27">
+        <v>58</v>
+      </c>
+      <c r="B69" s="27">
+        <v>100</v>
+      </c>
+      <c r="C69" s="27">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="27">
+        <v>52</v>
+      </c>
+      <c r="B70" s="27">
+        <v>100</v>
+      </c>
+      <c r="C70" s="27">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="27">
+        <v>49</v>
+      </c>
+      <c r="B71" s="27">
+        <v>100</v>
+      </c>
+      <c r="C71" s="27">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="27">
+        <v>55</v>
+      </c>
+      <c r="B72" s="27">
+        <v>100</v>
+      </c>
+      <c r="C72" s="27">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="27">
+        <v>46</v>
+      </c>
+      <c r="B73" s="27">
+        <v>52</v>
+      </c>
+      <c r="C73" s="27">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="27">
+        <v>52</v>
+      </c>
+      <c r="B74" s="27">
+        <v>100</v>
+      </c>
+      <c r="C74" s="27">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="27">
+        <v>37</v>
+      </c>
+      <c r="B75" s="27">
+        <v>100</v>
+      </c>
+      <c r="C75" s="27">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="27">
+        <v>46</v>
+      </c>
+      <c r="B76" s="27">
+        <v>100</v>
+      </c>
+      <c r="C76" s="27">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="27">
+        <v>48</v>
+      </c>
+      <c r="B77" s="27">
+        <v>100</v>
+      </c>
+      <c r="C77" s="27">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="27">
+        <v>39</v>
+      </c>
+      <c r="B78" s="27">
+        <v>100</v>
+      </c>
+      <c r="C78" s="27">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="27">
+        <v>33</v>
+      </c>
+      <c r="B79" s="27">
+        <v>100</v>
+      </c>
+      <c r="C79" s="27">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="27">
+        <v>41</v>
+      </c>
+      <c r="B80" s="27">
+        <v>100</v>
+      </c>
+      <c r="C80" s="27">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="27">
+        <v>42</v>
+      </c>
+      <c r="B81" s="27">
+        <v>100</v>
+      </c>
+      <c r="C81" s="27">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="27">
+        <v>38</v>
+      </c>
+      <c r="B82" s="27">
+        <v>100</v>
+      </c>
+      <c r="C82" s="27">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="27">
+        <v>44</v>
+      </c>
+      <c r="B83" s="27">
+        <v>100</v>
+      </c>
+      <c r="C83" s="27">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="27">
+        <v>43</v>
+      </c>
+      <c r="B84" s="27">
+        <v>100</v>
+      </c>
+      <c r="C84" s="27">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="27">
+        <v>61</v>
+      </c>
+      <c r="B85" s="27">
+        <v>100</v>
+      </c>
+      <c r="C85" s="27">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="27">
+        <v>42</v>
+      </c>
+      <c r="B86" s="27">
+        <v>100</v>
+      </c>
+      <c r="C86" s="27">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="27">
+        <v>36</v>
+      </c>
+      <c r="B87" s="27">
+        <v>100</v>
+      </c>
+      <c r="C87" s="27">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="27">
+        <v>28</v>
+      </c>
+      <c r="B88" s="27">
+        <v>100</v>
+      </c>
+      <c r="C88" s="27">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="27">
+        <v>38</v>
+      </c>
+      <c r="B89" s="27">
+        <v>100</v>
+      </c>
+      <c r="C89" s="27">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="27">
+        <v>45</v>
+      </c>
+      <c r="B90" s="27">
+        <v>100</v>
+      </c>
+      <c r="C90" s="27">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="27">
+        <v>34</v>
+      </c>
+      <c r="B91" s="27">
+        <v>100</v>
+      </c>
+      <c r="C91" s="27">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="27">
+        <v>49</v>
+      </c>
+      <c r="B92" s="27">
+        <v>100</v>
+      </c>
+      <c r="C92" s="27">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="27">
+        <v>21</v>
+      </c>
+      <c r="B93" s="27">
+        <v>100</v>
+      </c>
+      <c r="C93" s="27">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="27">
+        <v>18</v>
+      </c>
+      <c r="B94" s="27">
+        <v>100</v>
+      </c>
+      <c r="C94" s="27">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="27">
+        <v>32</v>
+      </c>
+      <c r="B95" s="27">
+        <v>100</v>
+      </c>
+      <c r="C95" s="27">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="27">
+        <v>41</v>
+      </c>
+      <c r="B96" s="27">
+        <v>100</v>
+      </c>
+      <c r="C96" s="27">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="27">
+        <v>32</v>
+      </c>
+      <c r="B97" s="27">
+        <v>100</v>
+      </c>
+      <c r="C97" s="27">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="27">
+        <v>54</v>
+      </c>
+      <c r="B98" s="27">
+        <v>100</v>
+      </c>
+      <c r="C98" s="27">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="27">
+        <v>27</v>
+      </c>
+      <c r="B99" s="27">
+        <v>100</v>
+      </c>
+      <c r="C99" s="27">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="27">
+        <v>30</v>
+      </c>
+      <c r="B100" s="27">
+        <v>100</v>
+      </c>
+      <c r="C100" s="27">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="27">
+        <v>33</v>
+      </c>
+      <c r="B101" s="27">
+        <v>100</v>
+      </c>
+      <c r="C101" s="27">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="27">
+        <v>79</v>
+      </c>
+      <c r="B102" s="27">
+        <v>100</v>
+      </c>
+      <c r="C102" s="27">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="27">
+        <v>28</v>
+      </c>
+      <c r="B103" s="27">
+        <v>100</v>
+      </c>
+      <c r="C103" s="27">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="27">
+        <v>12</v>
+      </c>
+      <c r="B104" s="27">
+        <v>27</v>
+      </c>
+      <c r="C104" s="27">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="27">
+        <v>36</v>
+      </c>
+      <c r="B105" s="27">
+        <v>100</v>
+      </c>
+      <c r="C105" s="27">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="27">
+        <v>41</v>
+      </c>
+      <c r="B106" s="27">
+        <v>100</v>
+      </c>
+      <c r="C106" s="27">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="27">
+        <v>92</v>
+      </c>
+      <c r="B107" s="27">
+        <v>100</v>
+      </c>
+      <c r="C107" s="27">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="27">
+        <v>27</v>
+      </c>
+      <c r="B108" s="27">
+        <v>100</v>
+      </c>
+      <c r="C108" s="27">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="27">
+        <v>50</v>
+      </c>
+      <c r="B109" s="27">
+        <v>100</v>
+      </c>
+      <c r="C109" s="27">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="27">
+        <v>32</v>
+      </c>
+      <c r="B110" s="27">
+        <v>100</v>
+      </c>
+      <c r="C110" s="27">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="27">
+        <v>49</v>
+      </c>
+      <c r="B111" s="27">
+        <v>100</v>
+      </c>
+      <c r="C111" s="27">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="27">
+        <v>42</v>
+      </c>
+      <c r="B112" s="27">
+        <v>100</v>
+      </c>
+      <c r="C112" s="27">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="27">
+        <v>39</v>
+      </c>
+      <c r="B113" s="27">
+        <v>100</v>
+      </c>
+      <c r="C113" s="27">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="27">
+        <v>33</v>
+      </c>
+      <c r="B114" s="27">
+        <v>100</v>
+      </c>
+      <c r="C114" s="27">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="27">
+        <v>46</v>
+      </c>
+      <c r="B115" s="27">
+        <v>100</v>
+      </c>
+      <c r="C115" s="27">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="27">
+        <v>47</v>
+      </c>
+      <c r="B116" s="27">
+        <v>100</v>
+      </c>
+      <c r="C116" s="27">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="27">
+        <v>35</v>
+      </c>
+      <c r="B117" s="27">
+        <v>100</v>
+      </c>
+      <c r="C117" s="27">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="27">
+        <v>29</v>
+      </c>
+      <c r="B118" s="27">
+        <v>100</v>
+      </c>
+      <c r="C118" s="27">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="27">
+        <v>27</v>
+      </c>
+      <c r="B119" s="27">
+        <v>100</v>
+      </c>
+      <c r="C119" s="27">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="27">
+        <v>37</v>
+      </c>
+      <c r="B120" s="27">
+        <v>100</v>
+      </c>
+      <c r="C120" s="27">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="27">
+        <v>42</v>
+      </c>
+      <c r="B121" s="27">
+        <v>100</v>
+      </c>
+      <c r="C121" s="27">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="27">
+        <v>41</v>
+      </c>
+      <c r="B122" s="27">
+        <v>100</v>
+      </c>
+      <c r="C122" s="27">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="27">
+        <v>45</v>
+      </c>
+      <c r="B123" s="27">
+        <v>100</v>
+      </c>
+      <c r="C123" s="27">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="27">
+        <v>31</v>
+      </c>
+      <c r="B124" s="27">
+        <v>100</v>
+      </c>
+      <c r="C124" s="27">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="27">
+        <v>59</v>
+      </c>
+      <c r="B125" s="27">
+        <v>100</v>
+      </c>
+      <c r="C125" s="27">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="27">
+        <v>38</v>
+      </c>
+      <c r="B126" s="27">
+        <v>100</v>
+      </c>
+      <c r="C126" s="27">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="27">
+        <v>44</v>
+      </c>
+      <c r="B127" s="27">
+        <v>100</v>
+      </c>
+      <c r="C127" s="27">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="27">
+        <v>63</v>
+      </c>
+      <c r="B128" s="27">
+        <v>100</v>
+      </c>
+      <c r="C128" s="27">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="27">
+        <v>68</v>
+      </c>
+      <c r="B129" s="27">
+        <v>100</v>
+      </c>
+      <c r="C129" s="27">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="27">
+        <v>34</v>
+      </c>
+      <c r="B130" s="27">
+        <v>100</v>
+      </c>
+      <c r="C130" s="27">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="27">
+        <v>27</v>
+      </c>
+      <c r="B131" s="27">
+        <v>100</v>
+      </c>
+      <c r="C131" s="27">
+        <f t="shared" ref="C131:C143" si="3">B131-A131</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="27">
+        <v>77</v>
+      </c>
+      <c r="B132" s="27">
+        <v>100</v>
+      </c>
+      <c r="C132" s="27">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="27">
+        <v>51</v>
+      </c>
+      <c r="B133" s="27">
+        <v>99</v>
+      </c>
+      <c r="C133" s="27">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="27">
+        <v>38</v>
+      </c>
+      <c r="B134" s="27">
+        <v>99</v>
+      </c>
+      <c r="C134" s="27">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="27">
+        <v>41</v>
+      </c>
+      <c r="B135" s="27">
+        <v>100</v>
+      </c>
+      <c r="C135" s="27">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="27">
+        <v>40</v>
+      </c>
+      <c r="B136" s="27">
+        <v>76</v>
+      </c>
+      <c r="C136" s="27">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="27">
+        <v>34</v>
+      </c>
+      <c r="B137" s="27">
+        <v>99</v>
+      </c>
+      <c r="C137" s="27">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="27">
+        <v>25</v>
+      </c>
+      <c r="B138" s="27">
+        <v>100</v>
+      </c>
+      <c r="C138" s="27">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="27">
+        <v>32</v>
+      </c>
+      <c r="B139" s="27">
+        <v>100</v>
+      </c>
+      <c r="C139" s="27">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="27">
+        <v>47</v>
+      </c>
+      <c r="B140" s="27">
+        <v>100</v>
+      </c>
+      <c r="C140" s="27">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="27">
+        <v>29</v>
+      </c>
+      <c r="B141" s="27">
+        <v>100</v>
+      </c>
+      <c r="C141" s="27">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="27">
+        <v>34</v>
+      </c>
+      <c r="B142" s="27">
+        <v>100</v>
+      </c>
+      <c r="C142" s="27">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="27">
+        <v>98</v>
+      </c>
+      <c r="B143" s="27">
+        <v>100</v>
+      </c>
+      <c r="C143" s="27">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="28"/>
+      <c r="B144" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8F83AF-F2A4-4442-91EA-3E32E2CEA2CA}">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45051.371412037035</v>
+      </c>
+      <c r="C2" s="6">
+        <v>45051.400601851848</v>
+      </c>
+      <c r="D2" s="4">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4">
+        <v>100</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F25" si="0">E2-D2</f>
+        <v>21</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G25" si="1">(E2 - D2) * 0.01 * 300</f>
+        <v>63</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2:H25" si="2">G2*1000</f>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45051.394409722219</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45051.418043981481</v>
+      </c>
+      <c r="D3" s="4">
+        <v>84</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="2"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45051.432858796295</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45051.458831018521</v>
+      </c>
+      <c r="D4" s="4">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4">
+        <v>97</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
+        <v>51.000000000000007</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>51000.000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45051.588599537034</v>
+      </c>
+      <c r="C5" s="6">
+        <v>45051.624768518515</v>
+      </c>
+      <c r="D5" s="4">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4">
+        <v>84</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="15">
+        <v>45051.898680555554</v>
+      </c>
+      <c r="C6" s="15">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D6" s="16">
+        <v>74</v>
+      </c>
+      <c r="E6" s="16">
+        <v>100</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="H6" s="17">
+        <f t="shared" si="2"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>45051.899687500001</v>
+      </c>
+      <c r="C7" s="15">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D7" s="16">
+        <v>41</v>
+      </c>
+      <c r="E7" s="16">
+        <v>100</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="2"/>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="15">
+        <v>45051.899791666663</v>
+      </c>
+      <c r="C8" s="15">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D8" s="16">
+        <v>36</v>
+      </c>
+      <c r="E8" s="16">
+        <v>100</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="H8" s="17">
+        <f t="shared" si="2"/>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="15">
+        <v>45051.900081018517</v>
+      </c>
+      <c r="C9" s="15">
+        <v>45052.229166666664</v>
+      </c>
+      <c r="D9" s="16">
+        <v>12</v>
+      </c>
+      <c r="E9" s="16">
+        <v>100</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="2"/>
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="15">
+        <v>45051.900509259256</v>
+      </c>
+      <c r="C10" s="15">
+        <v>45052.229166666664</v>
+      </c>
+      <c r="D10" s="16">
+        <v>28</v>
+      </c>
+      <c r="E10" s="16">
+        <v>100</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="H10" s="17">
+        <f t="shared" si="2"/>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="15">
+        <v>45051.900868055556</v>
+      </c>
+      <c r="C11" s="15">
+        <v>45052.229166666664</v>
+      </c>
+      <c r="D11" s="16">
+        <v>79</v>
+      </c>
+      <c r="E11" s="16">
+        <v>100</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="2"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="15">
+        <v>45051.910486111112</v>
+      </c>
+      <c r="C12" s="15">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D12" s="16">
+        <v>71</v>
+      </c>
+      <c r="E12" s="16">
+        <v>100</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="2"/>
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>45051.911631944444</v>
+      </c>
+      <c r="C13" s="15">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D13" s="16">
+        <v>33</v>
+      </c>
+      <c r="E13" s="16">
+        <v>100</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="2"/>
+        <v>201000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="15">
+        <v>45051.917025462964</v>
+      </c>
+      <c r="C14" s="15">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D14" s="16">
+        <v>30</v>
+      </c>
+      <c r="E14" s="16">
+        <v>100</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
+        <v>210.00000000000003</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="2"/>
+        <v>210000.00000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="15">
+        <v>45051.924375000002</v>
+      </c>
+      <c r="C15" s="15">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D15" s="16">
+        <v>72</v>
+      </c>
+      <c r="E15" s="16">
+        <v>100</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="1"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="H15" s="17">
+        <f t="shared" si="2"/>
+        <v>84000.000000000015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="19">
+        <v>45051.934988425928</v>
+      </c>
+      <c r="C16" s="19">
+        <v>45052.229166666664</v>
+      </c>
+      <c r="D16" s="20">
+        <v>54</v>
+      </c>
+      <c r="E16" s="20">
+        <v>100</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G16" s="21">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="2"/>
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="23">
+        <v>45051.936180555553</v>
+      </c>
+      <c r="C17" s="23">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D17" s="24">
+        <v>68</v>
+      </c>
+      <c r="E17" s="24">
+        <v>100</v>
+      </c>
+      <c r="F17" s="24">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="2"/>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23">
+        <v>45051.938263888886</v>
+      </c>
+      <c r="C18" s="23">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D18" s="24">
+        <v>70</v>
+      </c>
+      <c r="E18" s="24">
+        <v>100</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="2"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="23">
+        <v>45051.943124999998</v>
+      </c>
+      <c r="C19" s="23">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D19" s="24">
+        <v>54</v>
+      </c>
+      <c r="E19" s="24">
+        <v>100</v>
+      </c>
+      <c r="F19" s="24">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="2"/>
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="23">
+        <v>45051.945208333331</v>
+      </c>
+      <c r="C20" s="23">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D20" s="24">
+        <v>64</v>
+      </c>
+      <c r="E20" s="24">
+        <v>100</v>
+      </c>
+      <c r="F20" s="24">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="2"/>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="23">
+        <v>45051.954548611109</v>
+      </c>
+      <c r="C21" s="23">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D21" s="24">
+        <v>32</v>
+      </c>
+      <c r="E21" s="24">
+        <v>100</v>
+      </c>
+      <c r="F21" s="24">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="1"/>
+        <v>204.00000000000003</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="2"/>
+        <v>204000.00000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="23">
+        <v>45051.9612037037</v>
+      </c>
+      <c r="C22" s="23">
+        <v>45052.229166666664</v>
+      </c>
+      <c r="D22" s="24">
+        <v>41</v>
+      </c>
+      <c r="E22" s="24">
+        <v>100</v>
+      </c>
+      <c r="F22" s="24">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G22" s="25">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="2"/>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="23">
+        <v>45051.966041666667</v>
+      </c>
+      <c r="C23" s="23">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D23" s="24">
+        <v>32</v>
+      </c>
+      <c r="E23" s="24">
+        <v>100</v>
+      </c>
+      <c r="F23" s="24">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="1"/>
+        <v>204.00000000000003</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="2"/>
+        <v>204000.00000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="23">
+        <v>45051.970902777779</v>
+      </c>
+      <c r="C24" s="23">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D24" s="24">
+        <v>65</v>
+      </c>
+      <c r="E24" s="24">
+        <v>100</v>
+      </c>
+      <c r="F24" s="24">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="1"/>
+        <v>105.00000000000001</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" si="2"/>
+        <v>105000.00000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="23">
+        <v>45051.975069444445</v>
+      </c>
+      <c r="C25" s="23">
+        <v>45052.208333333336</v>
+      </c>
+      <c r="D25" s="24">
+        <v>76</v>
+      </c>
+      <c r="E25" s="24">
+        <v>100</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="2"/>
+        <v>72000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/資料生成/生成數據/generated_data.xlsx
+++ b/資料生成/生成數據/generated_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C61E4F8-61D7-4F8E-AA10-8A414A91825A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC087D-ED9A-40E8-AE61-2F3F7E77C754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1170" windowWidth="23250" windowHeight="12480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="915" yWindow="915" windowWidth="16530" windowHeight="11265" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4027,7 +4027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B43B61-6E6D-44A6-B49F-73F15665CAD2}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:H25"/>
     </sheetView>
   </sheetViews>
@@ -6678,8 +6678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8F83AF-F2A4-4442-91EA-3E32E2CEA2CA}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
